--- a/ep/ep/export/flourish/Romania_group_name.xlsx
+++ b/ep/ep/export/flourish/Romania_group_name.xlsx
@@ -70,13 +70,13 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>ENF</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EPP</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>PPE</t>
   </si>
   <si>
     <t>S&amp;D</t>
@@ -6183,31 +6183,43 @@
         <v>119</v>
       </c>
       <c r="E195">
-        <v>0.601</v>
+        <v>0.728</v>
+      </c>
+      <c r="F195">
+        <v>0.798</v>
       </c>
       <c r="G195">
-        <v>0.547</v>
+        <v>0.7</v>
       </c>
       <c r="H195">
-        <v>0.7</v>
+        <v>0.797</v>
       </c>
       <c r="I195">
-        <v>0.778</v>
+        <v>0.837</v>
       </c>
       <c r="J195">
-        <v>0.728</v>
+        <v>0.792</v>
       </c>
       <c r="K195">
-        <v>0.787</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="L195">
-        <v>0.783</v>
+        <v>0.867</v>
+      </c>
+      <c r="M195">
+        <v>0.975</v>
+      </c>
+      <c r="N195">
+        <v>0.972</v>
+      </c>
+      <c r="O195">
+        <v>0.975</v>
       </c>
       <c r="P195">
-        <v>0.653</v>
+        <v>0.973</v>
       </c>
       <c r="Q195">
-        <v>0.785</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="196" spans="1:17">
@@ -6218,31 +6230,13 @@
         <v>19</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E196">
-        <v>0.644</v>
+        <v>120</v>
       </c>
       <c r="G196">
-        <v>0.764</v>
-      </c>
-      <c r="H196">
-        <v>0.777</v>
-      </c>
-      <c r="I196">
-        <v>0.904</v>
-      </c>
-      <c r="J196">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K196">
-        <v>0.904</v>
-      </c>
-      <c r="L196">
-        <v>0.902</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="197" spans="1:17">
@@ -6253,13 +6247,34 @@
         <v>19</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E197">
-        <v>0.641</v>
+        <v>0.646</v>
+      </c>
+      <c r="F197">
+        <v>0.795</v>
+      </c>
+      <c r="G197">
+        <v>0.763</v>
+      </c>
+      <c r="H197">
+        <v>0.676</v>
+      </c>
+      <c r="I197">
+        <v>0.797</v>
+      </c>
+      <c r="J197">
+        <v>0.803</v>
+      </c>
+      <c r="K197">
+        <v>0.764</v>
+      </c>
+      <c r="L197">
+        <v>0.783</v>
       </c>
     </row>
     <row r="198" spans="1:17">
@@ -6270,13 +6285,13 @@
         <v>19</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E198">
-        <v>0.619</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="199" spans="1:17">
@@ -6287,16 +6302,13 @@
         <v>19</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P199">
-        <v>0.732</v>
-      </c>
-      <c r="Q199">
-        <v>0.991</v>
+        <v>123</v>
+      </c>
+      <c r="G199">
+        <v>0.984</v>
       </c>
     </row>
     <row r="200" spans="1:17">
@@ -6307,13 +6319,13 @@
         <v>19</v>
       </c>
       <c r="C200" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E200">
-        <v>0.59</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="201" spans="1:17">
@@ -6324,16 +6336,13 @@
         <v>19</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P201">
-        <v>0.745</v>
-      </c>
-      <c r="Q201">
-        <v>0.983</v>
+        <v>125</v>
+      </c>
+      <c r="G201">
+        <v>0.824</v>
       </c>
     </row>
     <row r="202" spans="1:17">
@@ -6344,34 +6353,28 @@
         <v>19</v>
       </c>
       <c r="C202" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G202">
-        <v>0.99</v>
-      </c>
-      <c r="H202">
-        <v>0.79</v>
-      </c>
-      <c r="I202">
-        <v>0.901</v>
-      </c>
-      <c r="J202">
-        <v>0.754</v>
-      </c>
-      <c r="K202">
-        <v>0.893</v>
+        <v>126</v>
       </c>
       <c r="L202">
-        <v>0.89</v>
+        <v>0.88</v>
+      </c>
+      <c r="M202">
+        <v>0.784</v>
+      </c>
+      <c r="N202">
+        <v>0.784</v>
+      </c>
+      <c r="O202">
+        <v>0.728</v>
       </c>
       <c r="P202">
-        <v>0.737</v>
+        <v>0.787</v>
       </c>
       <c r="Q202">
-        <v>0.983</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="203" spans="1:17">
@@ -6382,31 +6385,13 @@
         <v>19</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E203">
-        <v>0.657</v>
-      </c>
-      <c r="G203">
-        <v>0.758</v>
-      </c>
-      <c r="H203">
-        <v>0.797</v>
-      </c>
-      <c r="I203">
-        <v>0.897</v>
-      </c>
-      <c r="J203">
-        <v>0.76</v>
-      </c>
-      <c r="K203">
-        <v>0.902</v>
-      </c>
-      <c r="L203">
-        <v>0.949</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="204" spans="1:17">
@@ -6417,28 +6402,28 @@
         <v>19</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G204">
-        <v>0.857</v>
-      </c>
-      <c r="H204">
-        <v>1</v>
-      </c>
-      <c r="I204">
-        <v>0.906</v>
-      </c>
-      <c r="J204">
-        <v>0.822</v>
-      </c>
-      <c r="K204">
-        <v>0.874</v>
+        <v>128</v>
       </c>
       <c r="L204">
-        <v>0.916</v>
+        <v>0.837</v>
+      </c>
+      <c r="M204">
+        <v>0.784</v>
+      </c>
+      <c r="N204">
+        <v>0.775</v>
+      </c>
+      <c r="O204">
+        <v>0.743</v>
+      </c>
+      <c r="P204">
+        <v>0.787</v>
+      </c>
+      <c r="Q204">
+        <v>0.797</v>
       </c>
     </row>
     <row r="205" spans="1:17">
@@ -6449,13 +6434,43 @@
         <v>19</v>
       </c>
       <c r="C205" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E205">
-        <v>0.644</v>
+        <v>129</v>
+      </c>
+      <c r="G205">
+        <v>0.749</v>
+      </c>
+      <c r="H205">
+        <v>0.681</v>
+      </c>
+      <c r="I205">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="J205">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="K205">
+        <v>0.787</v>
+      </c>
+      <c r="L205">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M205">
+        <v>0.774</v>
+      </c>
+      <c r="N205">
+        <v>0.776</v>
+      </c>
+      <c r="O205">
+        <v>0.743</v>
+      </c>
+      <c r="P205">
+        <v>0.793</v>
+      </c>
+      <c r="Q205">
+        <v>0.798</v>
       </c>
     </row>
     <row r="206" spans="1:17">
@@ -6466,34 +6481,19 @@
         <v>19</v>
       </c>
       <c r="C206" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="E206">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="F206">
+        <v>0.963</v>
       </c>
       <c r="G206">
-        <v>0.73</v>
-      </c>
-      <c r="H206">
-        <v>0.642</v>
-      </c>
-      <c r="I206">
-        <v>0.786</v>
-      </c>
-      <c r="J206">
-        <v>0.666</v>
-      </c>
-      <c r="K206">
-        <v>0.794</v>
-      </c>
-      <c r="L206">
-        <v>0.861</v>
-      </c>
-      <c r="P206">
-        <v>0.65</v>
-      </c>
-      <c r="Q206">
-        <v>0.8120000000000001</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="207" spans="1:17">
@@ -6504,13 +6504,34 @@
         <v>19</v>
       </c>
       <c r="C207" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E207">
-        <v>0.726</v>
+        <v>0.628</v>
+      </c>
+      <c r="F207">
+        <v>0.732</v>
+      </c>
+      <c r="G207">
+        <v>0.715</v>
+      </c>
+      <c r="H207">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="I207">
+        <v>0.798</v>
+      </c>
+      <c r="J207">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="K207">
+        <v>0.798</v>
+      </c>
+      <c r="L207">
+        <v>0.779</v>
       </c>
     </row>
     <row r="208" spans="1:17">
@@ -6521,31 +6542,28 @@
         <v>19</v>
       </c>
       <c r="C208" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E208">
-        <v>0.622</v>
+        <v>132</v>
       </c>
       <c r="G208">
-        <v>0.644</v>
+        <v>0.395</v>
       </c>
       <c r="H208">
-        <v>0.713</v>
+        <v>0.666</v>
       </c>
       <c r="I208">
-        <v>0.786</v>
+        <v>0.732</v>
       </c>
       <c r="J208">
-        <v>0.767</v>
-      </c>
-      <c r="P208">
-        <v>0.656</v>
-      </c>
-      <c r="Q208">
-        <v>0.417</v>
+        <v>0.546</v>
+      </c>
+      <c r="K208">
+        <v>0.794</v>
+      </c>
+      <c r="L208">
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:17">
@@ -6556,34 +6574,13 @@
         <v>19</v>
       </c>
       <c r="C209" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G209">
-        <v>0.737</v>
-      </c>
-      <c r="H209">
-        <v>0.656</v>
-      </c>
-      <c r="I209">
-        <v>0.782</v>
-      </c>
-      <c r="J209">
-        <v>0.672</v>
-      </c>
-      <c r="K209">
-        <v>0.77</v>
-      </c>
-      <c r="L209">
-        <v>0.842</v>
-      </c>
-      <c r="P209">
-        <v>0.669</v>
-      </c>
-      <c r="Q209">
-        <v>0.8</v>
+        <v>133</v>
+      </c>
+      <c r="E209">
+        <v>0.61</v>
       </c>
     </row>
     <row r="210" spans="1:17">
@@ -6594,34 +6591,43 @@
         <v>19</v>
       </c>
       <c r="C210" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G210">
-        <v>0.515</v>
+        <v>0.98</v>
       </c>
       <c r="H210">
-        <v>0.778</v>
+        <v>0.962</v>
       </c>
       <c r="I210">
-        <v>0.886</v>
+        <v>0.979</v>
       </c>
       <c r="J210">
-        <v>0.739</v>
+        <v>0.983</v>
       </c>
       <c r="K210">
-        <v>0.896</v>
+        <v>0.976</v>
       </c>
       <c r="L210">
-        <v>0.738</v>
+        <v>0.972</v>
+      </c>
+      <c r="M210">
+        <v>0.972</v>
+      </c>
+      <c r="N210">
+        <v>0.97</v>
+      </c>
+      <c r="O210">
+        <v>0.973</v>
       </c>
       <c r="P210">
-        <v>0.775</v>
+        <v>0.968</v>
       </c>
       <c r="Q210">
-        <v>1</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="211" spans="1:17">
@@ -6632,37 +6638,13 @@
         <v>19</v>
       </c>
       <c r="C211" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E211">
-        <v>0.5</v>
-      </c>
-      <c r="G211">
-        <v>0.696</v>
-      </c>
-      <c r="H211">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I211">
-        <v>0.898</v>
-      </c>
-      <c r="J211">
-        <v>0.752</v>
-      </c>
-      <c r="K211">
-        <v>0.888</v>
-      </c>
-      <c r="L211">
-        <v>0.884</v>
-      </c>
-      <c r="P211">
-        <v>0.531</v>
-      </c>
-      <c r="Q211">
-        <v>1</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="212" spans="1:17">
@@ -6673,16 +6655,46 @@
         <v>19</v>
       </c>
       <c r="C212" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="E212">
+        <v>0.713</v>
+      </c>
+      <c r="F212">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G212">
+        <v>0.741</v>
+      </c>
+      <c r="H212">
+        <v>0.775</v>
+      </c>
+      <c r="I212">
+        <v>0.848</v>
+      </c>
+      <c r="J212">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="L212">
+        <v>0.992</v>
+      </c>
+      <c r="M212">
+        <v>0.977</v>
+      </c>
+      <c r="N212">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O212">
+        <v>0.972</v>
       </c>
       <c r="P212">
-        <v>0.671</v>
+        <v>0.978</v>
       </c>
       <c r="Q212">
-        <v>1</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="213" spans="1:17">
@@ -6693,16 +6705,49 @@
         <v>19</v>
       </c>
       <c r="C213" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="E213">
+        <v>0.863</v>
+      </c>
+      <c r="F213">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="G213">
+        <v>0.964</v>
+      </c>
+      <c r="H213">
+        <v>0.968</v>
+      </c>
+      <c r="I213">
+        <v>0.971</v>
+      </c>
+      <c r="J213">
+        <v>0.978</v>
       </c>
       <c r="K213">
-        <v>0.921</v>
+        <v>0.95</v>
       </c>
       <c r="L213">
-        <v>0.9379999999999999</v>
+        <v>0.959</v>
+      </c>
+      <c r="M213">
+        <v>0.966</v>
+      </c>
+      <c r="N213">
+        <v>0.962</v>
+      </c>
+      <c r="O213">
+        <v>0.973</v>
+      </c>
+      <c r="P213">
+        <v>0.957</v>
+      </c>
+      <c r="Q213">
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:17">
@@ -6713,13 +6758,13 @@
         <v>19</v>
       </c>
       <c r="C214" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E214">
-        <v>0.6850000000000001</v>
+        <v>138</v>
+      </c>
+      <c r="G214">
+        <v>0.97</v>
       </c>
     </row>
     <row r="215" spans="1:17">
@@ -6730,16 +6775,43 @@
         <v>19</v>
       </c>
       <c r="C215" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="G215">
+        <v>0.522</v>
+      </c>
+      <c r="H215">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="I215">
+        <v>0.849</v>
+      </c>
+      <c r="J215">
+        <v>0.826</v>
+      </c>
+      <c r="K215">
+        <v>0.785</v>
+      </c>
+      <c r="L215">
+        <v>0.799</v>
+      </c>
+      <c r="M215">
+        <v>0.768</v>
+      </c>
+      <c r="N215">
+        <v>0.772</v>
+      </c>
+      <c r="O215">
+        <v>0.72</v>
       </c>
       <c r="P215">
-        <v>0.725</v>
+        <v>0.804</v>
       </c>
       <c r="Q215">
-        <v>0.983</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="216" spans="1:17">
@@ -6750,16 +6822,16 @@
         <v>19</v>
       </c>
       <c r="C216" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P216">
-        <v>0.65</v>
-      </c>
-      <c r="Q216">
-        <v>0.766</v>
+        <v>140</v>
+      </c>
+      <c r="E216">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="F216">
+        <v>0.992</v>
       </c>
     </row>
     <row r="217" spans="1:17">
@@ -6770,13 +6842,49 @@
         <v>19</v>
       </c>
       <c r="C217" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E217">
-        <v>0.66</v>
+        <v>0.671</v>
+      </c>
+      <c r="F217">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="G217">
+        <v>0.707</v>
+      </c>
+      <c r="H217">
+        <v>0.677</v>
+      </c>
+      <c r="I217">
+        <v>0.8</v>
+      </c>
+      <c r="J217">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="K217">
+        <v>0.786</v>
+      </c>
+      <c r="L217">
+        <v>0.783</v>
+      </c>
+      <c r="M217">
+        <v>0.79</v>
+      </c>
+      <c r="N217">
+        <v>0.762</v>
+      </c>
+      <c r="O217">
+        <v>0.722</v>
+      </c>
+      <c r="P217">
+        <v>0.795</v>
+      </c>
+      <c r="Q217">
+        <v>0.786</v>
       </c>
     </row>
     <row r="218" spans="1:17">
@@ -6787,16 +6895,28 @@
         <v>19</v>
       </c>
       <c r="C218" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="L218">
+        <v>0.82</v>
+      </c>
+      <c r="M218">
+        <v>0.786</v>
+      </c>
+      <c r="N218">
+        <v>0.789</v>
+      </c>
+      <c r="O218">
+        <v>0.757</v>
       </c>
       <c r="P218">
-        <v>0.732</v>
+        <v>0.7</v>
       </c>
       <c r="Q218">
-        <v>0.982</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="219" spans="1:17">
@@ -6807,13 +6927,16 @@
         <v>19</v>
       </c>
       <c r="C219" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G219">
-        <v>0.731</v>
+        <v>143</v>
+      </c>
+      <c r="K219">
+        <v>0.834</v>
+      </c>
+      <c r="L219">
+        <v>0.877</v>
       </c>
     </row>
     <row r="220" spans="1:17">
@@ -6824,13 +6947,13 @@
         <v>19</v>
       </c>
       <c r="C220" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E220">
-        <v>0.748</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="221" spans="1:17">
@@ -6841,19 +6964,28 @@
         <v>19</v>
       </c>
       <c r="C221" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E221">
-        <v>0.599</v>
-      </c>
-      <c r="K221">
-        <v>0.769</v>
+        <v>145</v>
       </c>
       <c r="L221">
-        <v>0.795</v>
+        <v>0.895</v>
+      </c>
+      <c r="M221">
+        <v>0.832</v>
+      </c>
+      <c r="N221">
+        <v>0.758</v>
+      </c>
+      <c r="O221">
+        <v>0.751</v>
+      </c>
+      <c r="P221">
+        <v>0.794</v>
+      </c>
+      <c r="Q221">
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:17">
@@ -6864,28 +6996,28 @@
         <v>19</v>
       </c>
       <c r="C222" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G222">
-        <v>0.781</v>
-      </c>
-      <c r="H222">
-        <v>0.666</v>
-      </c>
-      <c r="I222">
-        <v>0.772</v>
-      </c>
-      <c r="J222">
-        <v>0.658</v>
-      </c>
-      <c r="K222">
-        <v>0.828</v>
+        <v>146</v>
       </c>
       <c r="L222">
-        <v>0.863</v>
+        <v>0.99</v>
+      </c>
+      <c r="M222">
+        <v>0.972</v>
+      </c>
+      <c r="N222">
+        <v>0.96</v>
+      </c>
+      <c r="O222">
+        <v>0.973</v>
+      </c>
+      <c r="P222">
+        <v>0.973</v>
+      </c>
+      <c r="Q222">
+        <v>0.971</v>
       </c>
     </row>
     <row r="223" spans="1:17">
@@ -6896,28 +7028,19 @@
         <v>19</v>
       </c>
       <c r="C223" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="E223">
+        <v>0.778</v>
+      </c>
+      <c r="F223">
+        <v>0.8090000000000001</v>
       </c>
       <c r="G223">
-        <v>0.726</v>
-      </c>
-      <c r="H223">
-        <v>0.679</v>
-      </c>
-      <c r="I223">
-        <v>0.782</v>
-      </c>
-      <c r="J223">
-        <v>0.71</v>
-      </c>
-      <c r="K223">
-        <v>0.803</v>
-      </c>
-      <c r="L223">
-        <v>0.857</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="224" spans="1:17">
@@ -6928,16 +7051,13 @@
         <v>19</v>
       </c>
       <c r="C224" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P224">
-        <v>0.695</v>
-      </c>
-      <c r="Q224">
-        <v>0.991</v>
+        <v>148</v>
+      </c>
+      <c r="G224">
+        <v>0.977</v>
       </c>
     </row>
     <row r="225" spans="1:17">
@@ -6948,13 +7068,13 @@
         <v>19</v>
       </c>
       <c r="C225" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E225">
-        <v>0.6889999999999999</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="226" spans="1:17">
@@ -6965,13 +7085,28 @@
         <v>19</v>
       </c>
       <c r="C226" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E226">
-        <v>0.619</v>
+        <v>150</v>
+      </c>
+      <c r="L226">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="M226">
+        <v>0.784</v>
+      </c>
+      <c r="N226">
+        <v>0.768</v>
+      </c>
+      <c r="O226">
+        <v>0.734</v>
+      </c>
+      <c r="P226">
+        <v>0.786</v>
+      </c>
+      <c r="Q226">
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:17">
@@ -6982,16 +7117,19 @@
         <v>19</v>
       </c>
       <c r="C227" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H227">
-        <v>1</v>
-      </c>
-      <c r="I227">
-        <v>0.904</v>
+        <v>151</v>
+      </c>
+      <c r="E227">
+        <v>0.961</v>
+      </c>
+      <c r="F227">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="G227">
+        <v>0.962</v>
       </c>
     </row>
     <row r="228" spans="1:17">
@@ -7002,28 +7140,13 @@
         <v>19</v>
       </c>
       <c r="C228" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G228">
-        <v>0.667</v>
-      </c>
-      <c r="H228">
-        <v>0.782</v>
-      </c>
-      <c r="I228">
-        <v>0.893</v>
-      </c>
-      <c r="J228">
-        <v>0.769</v>
-      </c>
-      <c r="K228">
-        <v>0.894</v>
-      </c>
-      <c r="L228">
-        <v>0.889</v>
+        <v>152</v>
+      </c>
+      <c r="E228">
+        <v>0.549</v>
       </c>
     </row>
     <row r="229" spans="1:17">
@@ -7034,13 +7157,16 @@
         <v>19</v>
       </c>
       <c r="C229" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E229">
-        <v>0.597</v>
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="F229">
+        <v>0.971</v>
       </c>
     </row>
     <row r="230" spans="1:17">
@@ -7051,13 +7177,22 @@
         <v>19</v>
       </c>
       <c r="C230" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E230">
-        <v>0.603</v>
+        <v>0.704</v>
+      </c>
+      <c r="K230">
+        <v>0.766</v>
+      </c>
+      <c r="L230">
+        <v>0.866</v>
+      </c>
+      <c r="M230">
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:17">
@@ -7068,28 +7203,28 @@
         <v>19</v>
       </c>
       <c r="C231" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G231">
-        <v>0.681</v>
+        <v>0.983</v>
       </c>
       <c r="H231">
-        <v>0.784</v>
+        <v>0.964</v>
       </c>
       <c r="I231">
-        <v>0.887</v>
+        <v>0.98</v>
       </c>
       <c r="J231">
-        <v>0.761</v>
+        <v>0.98</v>
       </c>
       <c r="K231">
-        <v>0.893</v>
+        <v>0.97</v>
       </c>
       <c r="L231">
-        <v>0.869</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="232" spans="1:17">
@@ -7100,37 +7235,28 @@
         <v>19</v>
       </c>
       <c r="C232" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E232">
-        <v>0.5</v>
+        <v>156</v>
       </c>
       <c r="G232">
-        <v>0.644</v>
+        <v>0.98</v>
       </c>
       <c r="H232">
-        <v>0.791</v>
+        <v>0.96</v>
       </c>
       <c r="I232">
-        <v>0.875</v>
+        <v>0.982</v>
       </c>
       <c r="J232">
-        <v>0.764</v>
+        <v>0.983</v>
       </c>
       <c r="K232">
-        <v>0.889</v>
+        <v>0.974</v>
       </c>
       <c r="L232">
-        <v>0.884</v>
-      </c>
-      <c r="P232">
-        <v>0.723</v>
-      </c>
-      <c r="Q232">
-        <v>0.962</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="233" spans="1:17">
@@ -7141,28 +7267,28 @@
         <v>19</v>
       </c>
       <c r="C233" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G233">
-        <v>0.731</v>
-      </c>
-      <c r="H233">
-        <v>0.653</v>
-      </c>
-      <c r="I233">
-        <v>0.782</v>
-      </c>
-      <c r="J233">
-        <v>0.663</v>
-      </c>
-      <c r="K233">
-        <v>0.796</v>
+        <v>157</v>
       </c>
       <c r="L233">
-        <v>0.865</v>
+        <v>0.78</v>
+      </c>
+      <c r="M233">
+        <v>0.764</v>
+      </c>
+      <c r="N233">
+        <v>0.767</v>
+      </c>
+      <c r="O233">
+        <v>0.713</v>
+      </c>
+      <c r="P233">
+        <v>0.797</v>
+      </c>
+      <c r="Q233">
+        <v>0.794</v>
       </c>
     </row>
     <row r="234" spans="1:17">
@@ -7173,34 +7299,13 @@
         <v>19</v>
       </c>
       <c r="C234" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G234">
-        <v>0.736</v>
-      </c>
-      <c r="H234">
-        <v>0.678</v>
-      </c>
-      <c r="I234">
-        <v>0.766</v>
-      </c>
-      <c r="J234">
-        <v>0.663</v>
-      </c>
-      <c r="K234">
-        <v>0.78</v>
-      </c>
-      <c r="L234">
-        <v>0.865</v>
-      </c>
-      <c r="P234">
-        <v>0.652</v>
-      </c>
-      <c r="Q234">
-        <v>0.774</v>
+        <v>158</v>
+      </c>
+      <c r="E234">
+        <v>0.543</v>
       </c>
     </row>
     <row r="235" spans="1:17">
@@ -7211,13 +7316,16 @@
         <v>19</v>
       </c>
       <c r="C235" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E235">
-        <v>0.631</v>
+        <v>159</v>
+      </c>
+      <c r="F235">
+        <v>0.974</v>
+      </c>
+      <c r="G235">
+        <v>0.98</v>
       </c>
     </row>
     <row r="236" spans="1:17">
@@ -7228,16 +7336,19 @@
         <v>19</v>
       </c>
       <c r="C236" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="P236">
-        <v>0.876</v>
-      </c>
-      <c r="Q236">
-        <v>0.36</v>
+        <v>160</v>
+      </c>
+      <c r="E236">
+        <v>0.68</v>
+      </c>
+      <c r="F236">
+        <v>0.791</v>
+      </c>
+      <c r="G236">
+        <v>0.753</v>
       </c>
     </row>
     <row r="237" spans="1:17">
@@ -7248,16 +7359,16 @@
         <v>19</v>
       </c>
       <c r="C237" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="P237">
-        <v>0.733</v>
-      </c>
-      <c r="Q237">
-        <v>0.983</v>
+        <v>161</v>
+      </c>
+      <c r="H237">
+        <v>0.631</v>
+      </c>
+      <c r="I237">
+        <v>0.931</v>
       </c>
     </row>
     <row r="238" spans="1:17">
@@ -7268,16 +7379,28 @@
         <v>19</v>
       </c>
       <c r="C238" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="P238">
-        <v>0.754</v>
-      </c>
-      <c r="Q238">
-        <v>0.983</v>
+        <v>162</v>
+      </c>
+      <c r="G238">
+        <v>0.665</v>
+      </c>
+      <c r="H238">
+        <v>0.68</v>
+      </c>
+      <c r="I238">
+        <v>0.82</v>
+      </c>
+      <c r="J238">
+        <v>0.82</v>
+      </c>
+      <c r="K238">
+        <v>0.797</v>
+      </c>
+      <c r="L238">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:17">
@@ -7288,13 +7411,13 @@
         <v>19</v>
       </c>
       <c r="C239" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E239">
-        <v>0.509</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="240" spans="1:17">
@@ -7305,37 +7428,13 @@
         <v>19</v>
       </c>
       <c r="C240" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E240">
-        <v>0.624</v>
-      </c>
-      <c r="G240">
-        <v>0.735</v>
-      </c>
-      <c r="H240">
-        <v>0.675</v>
-      </c>
-      <c r="I240">
-        <v>0.784</v>
-      </c>
-      <c r="J240">
-        <v>0.664</v>
-      </c>
-      <c r="K240">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="L240">
-        <v>0.851</v>
-      </c>
-      <c r="P240">
-        <v>0.626</v>
-      </c>
-      <c r="Q240">
-        <v>0.775</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="241" spans="1:17">
@@ -7346,13 +7445,28 @@
         <v>19</v>
       </c>
       <c r="C241" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="P241">
-        <v>0.631</v>
+        <v>165</v>
+      </c>
+      <c r="G241">
+        <v>0.667</v>
+      </c>
+      <c r="H241">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="I241">
+        <v>0.799</v>
+      </c>
+      <c r="J241">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="K241">
+        <v>0.787</v>
+      </c>
+      <c r="L241">
+        <v>0.794</v>
       </c>
     </row>
     <row r="242" spans="1:17">
@@ -7363,19 +7477,13 @@
         <v>19</v>
       </c>
       <c r="C242" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J242">
-        <v>0.768</v>
-      </c>
-      <c r="K242">
-        <v>0.896</v>
-      </c>
-      <c r="L242">
-        <v>0.909</v>
+        <v>166</v>
+      </c>
+      <c r="G242">
+        <v>0.975</v>
       </c>
     </row>
     <row r="243" spans="1:17">
@@ -7386,16 +7494,49 @@
         <v>19</v>
       </c>
       <c r="C243" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="E243">
+        <v>0.643</v>
+      </c>
+      <c r="F243">
+        <v>0.819</v>
+      </c>
+      <c r="G243">
+        <v>0.728</v>
+      </c>
+      <c r="H243">
+        <v>0.671</v>
+      </c>
+      <c r="I243">
+        <v>0.781</v>
+      </c>
+      <c r="J243">
+        <v>0.833</v>
+      </c>
+      <c r="K243">
+        <v>0.792</v>
+      </c>
+      <c r="L243">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="M243">
+        <v>0.796</v>
+      </c>
+      <c r="N243">
+        <v>0.795</v>
+      </c>
+      <c r="O243">
+        <v>0.751</v>
       </c>
       <c r="P243">
-        <v>0.656</v>
+        <v>0.789</v>
       </c>
       <c r="Q243">
-        <v>0.876</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="244" spans="1:17">
@@ -7406,34 +7547,28 @@
         <v>19</v>
       </c>
       <c r="C244" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G244">
-        <v>0.714</v>
+        <v>0.984</v>
       </c>
       <c r="H244">
-        <v>0.638</v>
+        <v>0.973</v>
       </c>
       <c r="I244">
-        <v>0.804</v>
+        <v>0.986</v>
       </c>
       <c r="J244">
-        <v>0.673</v>
+        <v>0.984</v>
       </c>
       <c r="K244">
-        <v>0.805</v>
+        <v>0.978</v>
       </c>
       <c r="L244">
-        <v>0.848</v>
-      </c>
-      <c r="P244">
-        <v>0.67</v>
-      </c>
-      <c r="Q244">
-        <v>0.737</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="245" spans="1:17">
@@ -7444,13 +7579,49 @@
         <v>19</v>
       </c>
       <c r="C245" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E245">
-        <v>0.49</v>
+        <v>0.848</v>
+      </c>
+      <c r="F245">
+        <v>0.882</v>
+      </c>
+      <c r="G245">
+        <v>0.958</v>
+      </c>
+      <c r="H245">
+        <v>0.956</v>
+      </c>
+      <c r="I245">
+        <v>0.974</v>
+      </c>
+      <c r="J245">
+        <v>0.979</v>
+      </c>
+      <c r="K245">
+        <v>0.964</v>
+      </c>
+      <c r="L245">
+        <v>0.961</v>
+      </c>
+      <c r="M245">
+        <v>0.972</v>
+      </c>
+      <c r="N245">
+        <v>0.968</v>
+      </c>
+      <c r="O245">
+        <v>0.977</v>
+      </c>
+      <c r="P245">
+        <v>0.966</v>
+      </c>
+      <c r="Q245">
+        <v>0.958</v>
       </c>
     </row>
     <row r="246" spans="1:17">
@@ -7461,34 +7632,13 @@
         <v>19</v>
       </c>
       <c r="C246" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G246">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="H246">
-        <v>0.665</v>
-      </c>
-      <c r="I246">
-        <v>0.77</v>
-      </c>
-      <c r="J246">
-        <v>0.732</v>
-      </c>
-      <c r="K246">
-        <v>0.742</v>
-      </c>
-      <c r="L246">
-        <v>0.781</v>
-      </c>
-      <c r="P246">
-        <v>0.63</v>
-      </c>
-      <c r="Q246">
-        <v>0.864</v>
+        <v>170</v>
+      </c>
+      <c r="E246">
+        <v>0.919</v>
       </c>
     </row>
     <row r="247" spans="1:17">
@@ -7499,16 +7649,28 @@
         <v>19</v>
       </c>
       <c r="C247" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K247">
-        <v>0.775</v>
+        <v>171</v>
       </c>
       <c r="L247">
-        <v>0.775</v>
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="M247">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="N247">
+        <v>0.538</v>
+      </c>
+      <c r="O247">
+        <v>0.44</v>
+      </c>
+      <c r="P247">
+        <v>0.74</v>
+      </c>
+      <c r="Q247">
+        <v>0.728</v>
       </c>
     </row>
     <row r="248" spans="1:17">
@@ -7519,13 +7681,19 @@
         <v>19</v>
       </c>
       <c r="C248" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E248">
-        <v>0.53</v>
+        <v>0.769</v>
+      </c>
+      <c r="F248">
+        <v>0.806</v>
+      </c>
+      <c r="G248">
+        <v>0.719</v>
       </c>
     </row>
     <row r="249" spans="1:17">
@@ -7536,13 +7704,28 @@
         <v>19</v>
       </c>
       <c r="C249" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E249">
-        <v>0.6840000000000001</v>
+        <v>173</v>
+      </c>
+      <c r="L249">
+        <v>0.82</v>
+      </c>
+      <c r="M249">
+        <v>0.78</v>
+      </c>
+      <c r="N249">
+        <v>0.761</v>
+      </c>
+      <c r="O249">
+        <v>0.732</v>
+      </c>
+      <c r="P249">
+        <v>0.801</v>
+      </c>
+      <c r="Q249">
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:17">
@@ -7553,28 +7736,16 @@
         <v>19</v>
       </c>
       <c r="C250" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G250">
-        <v>0.734</v>
-      </c>
-      <c r="H250">
-        <v>0.665</v>
-      </c>
-      <c r="I250">
-        <v>0.762</v>
-      </c>
-      <c r="J250">
-        <v>0.671</v>
-      </c>
-      <c r="K250">
-        <v>0.789</v>
-      </c>
-      <c r="L250">
-        <v>0.858</v>
+        <v>174</v>
+      </c>
+      <c r="P250">
+        <v>0.796</v>
+      </c>
+      <c r="Q250">
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -7585,13 +7756,19 @@
         <v>19</v>
       </c>
       <c r="C251" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E251">
-        <v>0.622</v>
+        <v>0.961</v>
+      </c>
+      <c r="F251">
+        <v>0.968</v>
+      </c>
+      <c r="G251">
+        <v>0.979</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -7602,13 +7779,16 @@
         <v>19</v>
       </c>
       <c r="C252" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E252">
-        <v>0.621</v>
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="F252">
+        <v>0.974</v>
       </c>
     </row>
     <row r="253" spans="1:17">
@@ -7619,25 +7799,49 @@
         <v>19</v>
       </c>
       <c r="C253" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
+      </c>
+      <c r="E253">
+        <v>0.948</v>
+      </c>
+      <c r="F253">
+        <v>0.981</v>
       </c>
       <c r="G253">
-        <v>0.675</v>
+        <v>0.981</v>
       </c>
       <c r="H253">
-        <v>0.695</v>
+        <v>0.963</v>
       </c>
       <c r="I253">
-        <v>0.798</v>
+        <v>0.986</v>
       </c>
       <c r="J253">
-        <v>0.736</v>
+        <v>0.983</v>
+      </c>
+      <c r="K253">
+        <v>0.975</v>
+      </c>
+      <c r="L253">
+        <v>0.967</v>
+      </c>
+      <c r="M253">
+        <v>0.965</v>
+      </c>
+      <c r="N253">
+        <v>0.955</v>
+      </c>
+      <c r="O253">
+        <v>0.966</v>
       </c>
       <c r="P253">
-        <v>0.59</v>
+        <v>0.972</v>
+      </c>
+      <c r="Q253">
+        <v>0.968</v>
       </c>
     </row>
     <row r="254" spans="1:17">
@@ -7648,28 +7852,16 @@
         <v>19</v>
       </c>
       <c r="C254" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G254">
-        <v>0.753</v>
-      </c>
-      <c r="H254">
-        <v>0.668</v>
-      </c>
-      <c r="I254">
-        <v>0.774</v>
-      </c>
-      <c r="J254">
-        <v>0.681</v>
-      </c>
-      <c r="K254">
-        <v>0.766</v>
-      </c>
-      <c r="L254">
-        <v>0.891</v>
+        <v>178</v>
+      </c>
+      <c r="E254">
+        <v>0.953</v>
+      </c>
+      <c r="F254">
+        <v>0.968</v>
       </c>
     </row>
     <row r="255" spans="1:17">
@@ -7680,31 +7872,25 @@
         <v>19</v>
       </c>
       <c r="C255" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G255">
-        <v>0.58</v>
-      </c>
-      <c r="H255">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="I255">
-        <v>0.783</v>
-      </c>
-      <c r="J255">
-        <v>0.737</v>
-      </c>
-      <c r="K255">
-        <v>0.801</v>
-      </c>
-      <c r="L255">
-        <v>0.774</v>
+        <v>179</v>
+      </c>
+      <c r="M255">
+        <v>0.98</v>
+      </c>
+      <c r="N255">
+        <v>0.962</v>
+      </c>
+      <c r="O255">
+        <v>0.977</v>
       </c>
       <c r="P255">
-        <v>0.662</v>
+        <v>0.971</v>
+      </c>
+      <c r="Q255">
+        <v>0.965</v>
       </c>
     </row>
     <row r="256" spans="1:17">
@@ -7715,13 +7901,19 @@
         <v>19</v>
       </c>
       <c r="C256" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E256">
-        <v>0.538</v>
+        <v>180</v>
+      </c>
+      <c r="J256">
+        <v>0.826</v>
+      </c>
+      <c r="K256">
+        <v>0.789</v>
+      </c>
+      <c r="L256">
+        <v>0.82</v>
       </c>
     </row>
     <row r="257" spans="1:17">
@@ -7732,22 +7924,28 @@
         <v>19</v>
       </c>
       <c r="C257" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E257">
-        <v>0.57</v>
-      </c>
-      <c r="G257">
-        <v>0.679</v>
-      </c>
-      <c r="H257">
-        <v>0.79</v>
-      </c>
-      <c r="I257">
-        <v>0.894</v>
+        <v>181</v>
+      </c>
+      <c r="L257">
+        <v>0.835</v>
+      </c>
+      <c r="M257">
+        <v>0.836</v>
+      </c>
+      <c r="N257">
+        <v>0.82</v>
+      </c>
+      <c r="O257">
+        <v>0.835</v>
+      </c>
+      <c r="P257">
+        <v>0.842</v>
+      </c>
+      <c r="Q257">
+        <v>0.805</v>
       </c>
     </row>
     <row r="258" spans="1:17">
@@ -7758,16 +7956,43 @@
         <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
+      </c>
+      <c r="G258">
+        <v>0.984</v>
+      </c>
+      <c r="H258">
+        <v>0.963</v>
+      </c>
+      <c r="I258">
+        <v>0.954</v>
+      </c>
+      <c r="J258">
+        <v>0.972</v>
+      </c>
+      <c r="K258">
+        <v>0.963</v>
+      </c>
+      <c r="L258">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="M258">
+        <v>0.914</v>
+      </c>
+      <c r="N258">
+        <v>0.825</v>
+      </c>
+      <c r="O258">
+        <v>0.836</v>
       </c>
       <c r="P258">
-        <v>0.741</v>
+        <v>0.903</v>
       </c>
       <c r="Q258">
-        <v>0.982</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="259" spans="1:17">
@@ -7778,28 +8003,13 @@
         <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G259">
-        <v>0.75</v>
-      </c>
-      <c r="H259">
-        <v>0.646</v>
-      </c>
-      <c r="I259">
-        <v>0.755</v>
-      </c>
-      <c r="J259">
-        <v>0.671</v>
-      </c>
-      <c r="K259">
-        <v>0.789</v>
-      </c>
-      <c r="L259">
-        <v>0.852</v>
+        <v>183</v>
+      </c>
+      <c r="E259">
+        <v>0.953</v>
       </c>
     </row>
     <row r="260" spans="1:17">
@@ -7810,16 +8020,19 @@
         <v>19</v>
       </c>
       <c r="C260" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P260">
-        <v>0.652</v>
-      </c>
-      <c r="Q260">
-        <v>0.792</v>
+        <v>184</v>
+      </c>
+      <c r="E260">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="F260">
+        <v>0.969</v>
+      </c>
+      <c r="G260">
+        <v>0.965</v>
       </c>
     </row>
     <row r="261" spans="1:17">
@@ -7830,13 +8043,19 @@
         <v>19</v>
       </c>
       <c r="C261" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E261">
-        <v>0.594</v>
+        <v>0.927</v>
+      </c>
+      <c r="F261">
+        <v>0.963</v>
+      </c>
+      <c r="G261">
+        <v>0.979</v>
       </c>
     </row>
     <row r="262" spans="1:17">
@@ -7847,31 +8066,43 @@
         <v>19</v>
       </c>
       <c r="C262" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E262">
-        <v>0.639</v>
+        <v>186</v>
       </c>
       <c r="G262">
-        <v>0.6840000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H262">
-        <v>0.795</v>
+        <v>0.757</v>
       </c>
       <c r="I262">
-        <v>0.889</v>
+        <v>0.854</v>
       </c>
       <c r="J262">
-        <v>0.746</v>
+        <v>0.8</v>
       </c>
       <c r="K262">
-        <v>0.911</v>
+        <v>0.775</v>
       </c>
       <c r="L262">
-        <v>0.878</v>
+        <v>0.819</v>
+      </c>
+      <c r="M262">
+        <v>0.827</v>
+      </c>
+      <c r="N262">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O262">
+        <v>0.829</v>
+      </c>
+      <c r="P262">
+        <v>0.84</v>
+      </c>
+      <c r="Q262">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:17">
@@ -7882,16 +8113,16 @@
         <v>19</v>
       </c>
       <c r="C263" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="P263">
-        <v>0.65</v>
-      </c>
-      <c r="Q263">
-        <v>0.698</v>
+        <v>187</v>
+      </c>
+      <c r="K263">
+        <v>0.775</v>
+      </c>
+      <c r="L263">
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:17">
@@ -7902,34 +8133,13 @@
         <v>19</v>
       </c>
       <c r="C264" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G264">
-        <v>0.695</v>
-      </c>
-      <c r="H264">
-        <v>0.652</v>
-      </c>
-      <c r="I264">
-        <v>0.783</v>
-      </c>
-      <c r="J264">
-        <v>0.664</v>
-      </c>
-      <c r="K264">
-        <v>0.798</v>
-      </c>
-      <c r="L264">
-        <v>0.857</v>
-      </c>
-      <c r="P264">
-        <v>0.648</v>
-      </c>
-      <c r="Q264">
-        <v>0.776</v>
+        <v>188</v>
+      </c>
+      <c r="E264">
+        <v>0.881</v>
       </c>
     </row>
     <row r="265" spans="1:17">
@@ -7940,13 +8150,13 @@
         <v>19</v>
       </c>
       <c r="C265" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E265">
-        <v>0.626</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="266" spans="1:17">
@@ -7957,31 +8167,28 @@
         <v>19</v>
       </c>
       <c r="C266" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="G266">
-        <v>0.868</v>
+        <v>0.981</v>
       </c>
       <c r="H266">
-        <v>0.633</v>
+        <v>0.968</v>
       </c>
       <c r="I266">
-        <v>0.77</v>
+        <v>0.985</v>
       </c>
       <c r="J266">
-        <v>0.5620000000000001</v>
+        <v>0.971</v>
       </c>
       <c r="K266">
-        <v>0.799</v>
-      </c>
-      <c r="P266">
-        <v>0.627</v>
-      </c>
-      <c r="Q266">
-        <v>0.76</v>
+        <v>0.971</v>
+      </c>
+      <c r="L266">
+        <v>0.966</v>
       </c>
     </row>
     <row r="267" spans="1:17">
@@ -7992,13 +8199,16 @@
         <v>19</v>
       </c>
       <c r="C267" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E267">
-        <v>0.649</v>
+        <v>0.952</v>
+      </c>
+      <c r="F267">
+        <v>0.967</v>
       </c>
     </row>
     <row r="268" spans="1:17">
@@ -8009,31 +8219,13 @@
         <v>19</v>
       </c>
       <c r="C268" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G268">
-        <v>0.665</v>
-      </c>
-      <c r="H268">
-        <v>0.723</v>
-      </c>
-      <c r="I268">
-        <v>0.886</v>
-      </c>
-      <c r="J268">
-        <v>0.753</v>
-      </c>
-      <c r="K268">
-        <v>0.886</v>
-      </c>
-      <c r="L268">
-        <v>0.89</v>
-      </c>
-      <c r="P268">
-        <v>0.735</v>
+        <v>192</v>
+      </c>
+      <c r="E268">
+        <v>0.622</v>
       </c>
     </row>
     <row r="269" spans="1:17">
@@ -8044,28 +8236,13 @@
         <v>19</v>
       </c>
       <c r="C269" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G269">
-        <v>0.485</v>
-      </c>
-      <c r="H269">
-        <v>0.831</v>
-      </c>
-      <c r="I269">
-        <v>0.888</v>
-      </c>
-      <c r="J269">
-        <v>0.759</v>
-      </c>
-      <c r="K269">
-        <v>0.896</v>
-      </c>
-      <c r="L269">
-        <v>0.9</v>
+        <v>193</v>
+      </c>
+      <c r="E269">
+        <v>0.908</v>
       </c>
     </row>
     <row r="270" spans="1:17">
@@ -8076,13 +8253,46 @@
         <v>19</v>
       </c>
       <c r="C270" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E270">
-        <v>0.735</v>
+        <v>0.775</v>
+      </c>
+      <c r="F270">
+        <v>0.79</v>
+      </c>
+      <c r="G270">
+        <v>0.753</v>
+      </c>
+      <c r="H270">
+        <v>0.801</v>
+      </c>
+      <c r="I270">
+        <v>0.857</v>
+      </c>
+      <c r="J270">
+        <v>0.772</v>
+      </c>
+      <c r="L270">
+        <v>0.992</v>
+      </c>
+      <c r="M270">
+        <v>0.98</v>
+      </c>
+      <c r="N270">
+        <v>0.966</v>
+      </c>
+      <c r="O270">
+        <v>0.972</v>
+      </c>
+      <c r="P270">
+        <v>0.984</v>
+      </c>
+      <c r="Q270">
+        <v>0.972</v>
       </c>
     </row>
     <row r="271" spans="1:17">
@@ -8090,52 +8300,37 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="E271">
-        <v>0.728</v>
+        <v>0.954</v>
       </c>
       <c r="F271">
-        <v>0.798</v>
+        <v>0.986</v>
       </c>
       <c r="G271">
-        <v>0.7</v>
+        <v>0.984</v>
       </c>
       <c r="H271">
-        <v>0.797</v>
+        <v>0.984</v>
       </c>
       <c r="I271">
-        <v>0.837</v>
+        <v>0.977</v>
       </c>
       <c r="J271">
-        <v>0.792</v>
+        <v>0.977</v>
       </c>
       <c r="K271">
-        <v>0.8090000000000001</v>
+        <v>0.976</v>
       </c>
       <c r="L271">
-        <v>0.867</v>
-      </c>
-      <c r="M271">
-        <v>0.975</v>
-      </c>
-      <c r="N271">
-        <v>0.972</v>
-      </c>
-      <c r="O271">
-        <v>0.975</v>
-      </c>
-      <c r="P271">
-        <v>0.973</v>
-      </c>
-      <c r="Q271">
-        <v>0.975</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="272" spans="1:17">
@@ -8143,16 +8338,52 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C272" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>120</v>
+        <v>196</v>
+      </c>
+      <c r="E272">
+        <v>0.776</v>
+      </c>
+      <c r="F272">
+        <v>0.793</v>
       </c>
       <c r="G272">
-        <v>0.981</v>
+        <v>0.709</v>
+      </c>
+      <c r="H272">
+        <v>0.782</v>
+      </c>
+      <c r="I272">
+        <v>0.826</v>
+      </c>
+      <c r="J272">
+        <v>0.782</v>
+      </c>
+      <c r="K272">
+        <v>0.8</v>
+      </c>
+      <c r="L272">
+        <v>0.821</v>
+      </c>
+      <c r="M272">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="N272">
+        <v>0.805</v>
+      </c>
+      <c r="O272">
+        <v>0.865</v>
+      </c>
+      <c r="P272">
+        <v>0.853</v>
+      </c>
+      <c r="Q272">
+        <v>0.776</v>
       </c>
     </row>
     <row r="273" spans="1:17">
@@ -8160,37 +8391,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C273" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="E273">
-        <v>0.646</v>
+        <v>0.946</v>
       </c>
       <c r="F273">
-        <v>0.795</v>
-      </c>
-      <c r="G273">
-        <v>0.763</v>
-      </c>
-      <c r="H273">
-        <v>0.676</v>
-      </c>
-      <c r="I273">
-        <v>0.797</v>
-      </c>
-      <c r="J273">
-        <v>0.803</v>
-      </c>
-      <c r="K273">
-        <v>0.764</v>
-      </c>
-      <c r="L273">
-        <v>0.783</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="274" spans="1:17">
@@ -8198,16 +8411,28 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C274" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="E274">
-        <v>0.615</v>
+        <v>0.702</v>
+      </c>
+      <c r="F274">
+        <v>0.845</v>
+      </c>
+      <c r="G274">
+        <v>0.735</v>
+      </c>
+      <c r="H274">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="I274">
+        <v>0.789</v>
       </c>
     </row>
     <row r="275" spans="1:17">
@@ -8215,16 +8440,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C275" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G275">
-        <v>0.984</v>
+        <v>199</v>
+      </c>
+      <c r="O275">
+        <v>0.795</v>
+      </c>
+      <c r="P275">
+        <v>0.794</v>
+      </c>
+      <c r="Q275">
+        <v>0.751</v>
       </c>
     </row>
     <row r="276" spans="1:17">
@@ -8232,16 +8463,37 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C276" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="E276">
-        <v>0.776</v>
+        <v>0.962</v>
+      </c>
+      <c r="F276">
+        <v>0.958</v>
+      </c>
+      <c r="G276">
+        <v>0.974</v>
+      </c>
+      <c r="H276">
+        <v>0.951</v>
+      </c>
+      <c r="I276">
+        <v>0.966</v>
+      </c>
+      <c r="J276">
+        <v>0.982</v>
+      </c>
+      <c r="K276">
+        <v>0.97</v>
+      </c>
+      <c r="L276">
+        <v>0.956</v>
       </c>
     </row>
     <row r="277" spans="1:17">
@@ -8249,16 +8501,31 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C277" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G277">
-        <v>0.824</v>
+        <v>201</v>
+      </c>
+      <c r="L277">
+        <v>0.989</v>
+      </c>
+      <c r="M277">
+        <v>0.974</v>
+      </c>
+      <c r="N277">
+        <v>0.972</v>
+      </c>
+      <c r="O277">
+        <v>0.977</v>
+      </c>
+      <c r="P277">
+        <v>0.976</v>
+      </c>
+      <c r="Q277">
+        <v>0.957</v>
       </c>
     </row>
     <row r="278" spans="1:17">
@@ -8266,31 +8533,16 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C278" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L278">
-        <v>0.88</v>
-      </c>
-      <c r="M278">
-        <v>0.784</v>
-      </c>
-      <c r="N278">
-        <v>0.784</v>
-      </c>
-      <c r="O278">
-        <v>0.728</v>
-      </c>
-      <c r="P278">
-        <v>0.787</v>
-      </c>
-      <c r="Q278">
-        <v>0.795</v>
+        <v>202</v>
+      </c>
+      <c r="E278">
+        <v>0.712</v>
       </c>
     </row>
     <row r="279" spans="1:17">
@@ -8298,16 +8550,37 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C279" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="E279">
-        <v>0.92</v>
+        <v>0.657</v>
+      </c>
+      <c r="F279">
+        <v>0.783</v>
+      </c>
+      <c r="G279">
+        <v>0.747</v>
+      </c>
+      <c r="H279">
+        <v>0.703</v>
+      </c>
+      <c r="I279">
+        <v>0.828</v>
+      </c>
+      <c r="J279">
+        <v>0.806</v>
+      </c>
+      <c r="K279">
+        <v>0.839</v>
+      </c>
+      <c r="L279">
+        <v>0.806</v>
       </c>
     </row>
     <row r="280" spans="1:17">
@@ -8315,31 +8588,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C280" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L280">
-        <v>0.837</v>
-      </c>
-      <c r="M280">
-        <v>0.784</v>
-      </c>
-      <c r="N280">
-        <v>0.775</v>
-      </c>
-      <c r="O280">
-        <v>0.743</v>
-      </c>
-      <c r="P280">
-        <v>0.787</v>
-      </c>
-      <c r="Q280">
-        <v>0.797</v>
+        <v>204</v>
+      </c>
+      <c r="E280">
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:17">
@@ -8347,46 +8605,31 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C281" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G281">
-        <v>0.749</v>
-      </c>
-      <c r="H281">
-        <v>0.681</v>
-      </c>
-      <c r="I281">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="J281">
-        <v>0.8090000000000001</v>
-      </c>
-      <c r="K281">
-        <v>0.787</v>
+        <v>205</v>
       </c>
       <c r="L281">
-        <v>0.8100000000000001</v>
+        <v>0.838</v>
       </c>
       <c r="M281">
-        <v>0.774</v>
+        <v>0.798</v>
       </c>
       <c r="N281">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="O281">
-        <v>0.743</v>
+        <v>0.73</v>
       </c>
       <c r="P281">
-        <v>0.793</v>
+        <v>0.972</v>
       </c>
       <c r="Q281">
-        <v>0.798</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="282" spans="1:17">
@@ -8394,22 +8637,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C282" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="E282">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="F282">
-        <v>0.963</v>
-      </c>
-      <c r="G282">
-        <v>0.966</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:17">
@@ -8417,37 +8654,52 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C283" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="E283">
-        <v>0.628</v>
+        <v>0.871</v>
       </c>
       <c r="F283">
-        <v>0.732</v>
+        <v>0.955</v>
       </c>
       <c r="G283">
-        <v>0.715</v>
+        <v>0.976</v>
       </c>
       <c r="H283">
-        <v>0.6840000000000001</v>
+        <v>0.972</v>
       </c>
       <c r="I283">
-        <v>0.798</v>
+        <v>0.982</v>
       </c>
       <c r="J283">
-        <v>0.8129999999999999</v>
+        <v>0.976</v>
       </c>
       <c r="K283">
-        <v>0.798</v>
+        <v>0.973</v>
       </c>
       <c r="L283">
-        <v>0.779</v>
+        <v>0.973</v>
+      </c>
+      <c r="M283">
+        <v>0.977</v>
+      </c>
+      <c r="N283">
+        <v>0.971</v>
+      </c>
+      <c r="O283">
+        <v>0.978</v>
+      </c>
+      <c r="P283">
+        <v>0.976</v>
+      </c>
+      <c r="Q283">
+        <v>0.974</v>
       </c>
     </row>
     <row r="284" spans="1:17">
@@ -8455,31 +8707,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C284" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G284">
-        <v>0.395</v>
-      </c>
-      <c r="H284">
-        <v>0.666</v>
-      </c>
-      <c r="I284">
-        <v>0.732</v>
-      </c>
-      <c r="J284">
-        <v>0.546</v>
-      </c>
-      <c r="K284">
-        <v>0.794</v>
-      </c>
-      <c r="L284">
-        <v>0.9379999999999999</v>
+        <v>208</v>
+      </c>
+      <c r="E284">
+        <v>0.645</v>
       </c>
     </row>
     <row r="285" spans="1:17">
@@ -8487,16 +8724,19 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C285" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="E285">
-        <v>0.61</v>
+        <v>0.711</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:17">
@@ -8504,46 +8744,46 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C286" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="G286">
+        <v>0.996</v>
+      </c>
+      <c r="H286">
+        <v>0.968</v>
+      </c>
+      <c r="I286">
+        <v>0.983</v>
+      </c>
+      <c r="J286">
         <v>0.98</v>
       </c>
-      <c r="H286">
-        <v>0.962</v>
-      </c>
-      <c r="I286">
-        <v>0.979</v>
-      </c>
-      <c r="J286">
-        <v>0.983</v>
-      </c>
       <c r="K286">
-        <v>0.976</v>
+        <v>0.974</v>
       </c>
       <c r="L286">
+        <v>0.99</v>
+      </c>
+      <c r="M286">
+        <v>0.978</v>
+      </c>
+      <c r="N286">
+        <v>0.964</v>
+      </c>
+      <c r="O286">
+        <v>0.971</v>
+      </c>
+      <c r="P286">
+        <v>0.952</v>
+      </c>
+      <c r="Q286">
         <v>0.972</v>
-      </c>
-      <c r="M286">
-        <v>0.972</v>
-      </c>
-      <c r="N286">
-        <v>0.97</v>
-      </c>
-      <c r="O286">
-        <v>0.973</v>
-      </c>
-      <c r="P286">
-        <v>0.968</v>
-      </c>
-      <c r="Q286">
-        <v>0.964</v>
       </c>
     </row>
     <row r="287" spans="1:17">
@@ -8551,16 +8791,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C287" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="E287">
-        <v>0.654</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="288" spans="1:17">
@@ -8568,49 +8808,52 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C288" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="E288">
-        <v>0.713</v>
+        <v>0.646</v>
       </c>
       <c r="F288">
-        <v>0.8129999999999999</v>
+        <v>0.799</v>
       </c>
       <c r="G288">
-        <v>0.741</v>
+        <v>0.763</v>
       </c>
       <c r="H288">
-        <v>0.775</v>
+        <v>0.708</v>
       </c>
       <c r="I288">
-        <v>0.848</v>
+        <v>0.805</v>
       </c>
       <c r="J288">
+        <v>0.823</v>
+      </c>
+      <c r="K288">
+        <v>0.781</v>
+      </c>
+      <c r="L288">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="M288">
+        <v>0.791</v>
+      </c>
+      <c r="N288">
+        <v>0.776</v>
+      </c>
+      <c r="O288">
+        <v>0.739</v>
+      </c>
+      <c r="P288">
+        <v>0.797</v>
+      </c>
+      <c r="Q288">
         <v>0.8080000000000001</v>
-      </c>
-      <c r="L288">
-        <v>0.992</v>
-      </c>
-      <c r="M288">
-        <v>0.977</v>
-      </c>
-      <c r="N288">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O288">
-        <v>0.972</v>
-      </c>
-      <c r="P288">
-        <v>0.978</v>
-      </c>
-      <c r="Q288">
-        <v>0.967</v>
       </c>
     </row>
     <row r="289" spans="1:17">
@@ -8618,52 +8861,25 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C289" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E289">
-        <v>0.863</v>
-      </c>
-      <c r="F289">
-        <v>0.9320000000000001</v>
-      </c>
-      <c r="G289">
-        <v>0.964</v>
-      </c>
-      <c r="H289">
-        <v>0.968</v>
-      </c>
-      <c r="I289">
-        <v>0.971</v>
-      </c>
-      <c r="J289">
-        <v>0.978</v>
-      </c>
-      <c r="K289">
-        <v>0.95</v>
+        <v>213</v>
       </c>
       <c r="L289">
-        <v>0.959</v>
+        <v>0.837</v>
       </c>
       <c r="M289">
-        <v>0.966</v>
+        <v>0.776</v>
       </c>
       <c r="N289">
-        <v>0.962</v>
+        <v>0.774</v>
       </c>
       <c r="O289">
-        <v>0.973</v>
-      </c>
-      <c r="P289">
-        <v>0.957</v>
-      </c>
-      <c r="Q289">
-        <v>0.9419999999999999</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="290" spans="1:17">
@@ -8671,16 +8887,40 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C290" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="G290">
-        <v>0.97</v>
+        <v>0.701</v>
+      </c>
+      <c r="H290">
+        <v>0.649</v>
+      </c>
+      <c r="I290">
+        <v>0.8</v>
+      </c>
+      <c r="J290">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="K290">
+        <v>0.794</v>
+      </c>
+      <c r="L290">
+        <v>0.829</v>
+      </c>
+      <c r="M290">
+        <v>0.83</v>
+      </c>
+      <c r="N290">
+        <v>0.784</v>
+      </c>
+      <c r="O290">
+        <v>0.746</v>
       </c>
     </row>
     <row r="291" spans="1:17">
@@ -8688,46 +8928,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C291" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G291">
-        <v>0.522</v>
-      </c>
-      <c r="H291">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="I291">
-        <v>0.849</v>
-      </c>
-      <c r="J291">
-        <v>0.826</v>
-      </c>
-      <c r="K291">
-        <v>0.785</v>
-      </c>
-      <c r="L291">
-        <v>0.799</v>
-      </c>
-      <c r="M291">
-        <v>0.768</v>
-      </c>
-      <c r="N291">
-        <v>0.772</v>
-      </c>
-      <c r="O291">
-        <v>0.72</v>
-      </c>
-      <c r="P291">
-        <v>0.804</v>
-      </c>
-      <c r="Q291">
-        <v>0.764</v>
+        <v>215</v>
+      </c>
+      <c r="E291">
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="292" spans="1:17">
@@ -8738,16 +8948,37 @@
         <v>20</v>
       </c>
       <c r="C292" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E292">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="F292">
-        <v>0.992</v>
+        <v>0.601</v>
+      </c>
+      <c r="G292">
+        <v>0.547</v>
+      </c>
+      <c r="H292">
+        <v>0.7</v>
+      </c>
+      <c r="I292">
+        <v>0.778</v>
+      </c>
+      <c r="J292">
+        <v>0.728</v>
+      </c>
+      <c r="K292">
+        <v>0.787</v>
+      </c>
+      <c r="L292">
+        <v>0.783</v>
+      </c>
+      <c r="P292">
+        <v>0.653</v>
+      </c>
+      <c r="Q292">
+        <v>0.785</v>
       </c>
     </row>
     <row r="293" spans="1:17">
@@ -8758,49 +8989,31 @@
         <v>20</v>
       </c>
       <c r="C293" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E293">
-        <v>0.671</v>
-      </c>
-      <c r="F293">
-        <v>0.8139999999999999</v>
+        <v>0.644</v>
       </c>
       <c r="G293">
-        <v>0.707</v>
+        <v>0.764</v>
       </c>
       <c r="H293">
-        <v>0.677</v>
+        <v>0.777</v>
       </c>
       <c r="I293">
-        <v>0.8</v>
+        <v>0.904</v>
       </c>
       <c r="J293">
-        <v>0.8120000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K293">
-        <v>0.786</v>
+        <v>0.904</v>
       </c>
       <c r="L293">
-        <v>0.783</v>
-      </c>
-      <c r="M293">
-        <v>0.79</v>
-      </c>
-      <c r="N293">
-        <v>0.762</v>
-      </c>
-      <c r="O293">
-        <v>0.722</v>
-      </c>
-      <c r="P293">
-        <v>0.795</v>
-      </c>
-      <c r="Q293">
-        <v>0.786</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="294" spans="1:17">
@@ -8811,28 +9024,13 @@
         <v>20</v>
       </c>
       <c r="C294" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L294">
-        <v>0.82</v>
-      </c>
-      <c r="M294">
-        <v>0.786</v>
-      </c>
-      <c r="N294">
-        <v>0.789</v>
-      </c>
-      <c r="O294">
-        <v>0.757</v>
-      </c>
-      <c r="P294">
-        <v>0.7</v>
-      </c>
-      <c r="Q294">
-        <v>0.763</v>
+        <v>122</v>
+      </c>
+      <c r="E294">
+        <v>0.641</v>
       </c>
     </row>
     <row r="295" spans="1:17">
@@ -8843,16 +9041,13 @@
         <v>20</v>
       </c>
       <c r="C295" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K295">
-        <v>0.834</v>
-      </c>
-      <c r="L295">
-        <v>0.877</v>
+        <v>124</v>
+      </c>
+      <c r="E295">
+        <v>0.619</v>
       </c>
     </row>
     <row r="296" spans="1:17">
@@ -8863,13 +9058,16 @@
         <v>20</v>
       </c>
       <c r="C296" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E296">
-        <v>0.599</v>
+        <v>126</v>
+      </c>
+      <c r="P296">
+        <v>0.732</v>
+      </c>
+      <c r="Q296">
+        <v>0.991</v>
       </c>
     </row>
     <row r="297" spans="1:17">
@@ -8880,28 +9078,13 @@
         <v>20</v>
       </c>
       <c r="C297" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L297">
-        <v>0.895</v>
-      </c>
-      <c r="M297">
-        <v>0.832</v>
-      </c>
-      <c r="N297">
-        <v>0.758</v>
-      </c>
-      <c r="O297">
-        <v>0.751</v>
-      </c>
-      <c r="P297">
-        <v>0.794</v>
-      </c>
-      <c r="Q297">
-        <v>0.8080000000000001</v>
+        <v>127</v>
+      </c>
+      <c r="E297">
+        <v>0.59</v>
       </c>
     </row>
     <row r="298" spans="1:17">
@@ -8912,28 +9095,16 @@
         <v>20</v>
       </c>
       <c r="C298" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L298">
-        <v>0.99</v>
-      </c>
-      <c r="M298">
-        <v>0.972</v>
-      </c>
-      <c r="N298">
-        <v>0.96</v>
-      </c>
-      <c r="O298">
-        <v>0.973</v>
+        <v>128</v>
       </c>
       <c r="P298">
-        <v>0.973</v>
+        <v>0.745</v>
       </c>
       <c r="Q298">
-        <v>0.971</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="299" spans="1:17">
@@ -8944,19 +9115,34 @@
         <v>20</v>
       </c>
       <c r="C299" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E299">
-        <v>0.778</v>
-      </c>
-      <c r="F299">
-        <v>0.8090000000000001</v>
+        <v>129</v>
       </c>
       <c r="G299">
-        <v>0.744</v>
+        <v>0.99</v>
+      </c>
+      <c r="H299">
+        <v>0.79</v>
+      </c>
+      <c r="I299">
+        <v>0.901</v>
+      </c>
+      <c r="J299">
+        <v>0.754</v>
+      </c>
+      <c r="K299">
+        <v>0.893</v>
+      </c>
+      <c r="L299">
+        <v>0.89</v>
+      </c>
+      <c r="P299">
+        <v>0.737</v>
+      </c>
+      <c r="Q299">
+        <v>0.983</v>
       </c>
     </row>
     <row r="300" spans="1:17">
@@ -8967,13 +9153,31 @@
         <v>20</v>
       </c>
       <c r="C300" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
+      </c>
+      <c r="E300">
+        <v>0.657</v>
       </c>
       <c r="G300">
-        <v>0.977</v>
+        <v>0.758</v>
+      </c>
+      <c r="H300">
+        <v>0.797</v>
+      </c>
+      <c r="I300">
+        <v>0.897</v>
+      </c>
+      <c r="J300">
+        <v>0.76</v>
+      </c>
+      <c r="K300">
+        <v>0.902</v>
+      </c>
+      <c r="L300">
+        <v>0.949</v>
       </c>
     </row>
     <row r="301" spans="1:17">
@@ -8984,13 +9188,28 @@
         <v>20</v>
       </c>
       <c r="C301" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E301">
-        <v>0.626</v>
+        <v>132</v>
+      </c>
+      <c r="G301">
+        <v>0.857</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>0.906</v>
+      </c>
+      <c r="J301">
+        <v>0.822</v>
+      </c>
+      <c r="K301">
+        <v>0.874</v>
+      </c>
+      <c r="L301">
+        <v>0.916</v>
       </c>
     </row>
     <row r="302" spans="1:17">
@@ -9001,28 +9220,13 @@
         <v>20</v>
       </c>
       <c r="C302" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L302">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="M302">
-        <v>0.784</v>
-      </c>
-      <c r="N302">
-        <v>0.768</v>
-      </c>
-      <c r="O302">
-        <v>0.734</v>
-      </c>
-      <c r="P302">
-        <v>0.786</v>
-      </c>
-      <c r="Q302">
-        <v>0.8149999999999999</v>
+        <v>133</v>
+      </c>
+      <c r="E302">
+        <v>0.644</v>
       </c>
     </row>
     <row r="303" spans="1:17">
@@ -9033,19 +9237,34 @@
         <v>20</v>
       </c>
       <c r="C303" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E303">
-        <v>0.961</v>
-      </c>
-      <c r="F303">
-        <v>0.9429999999999999</v>
+        <v>134</v>
       </c>
       <c r="G303">
-        <v>0.962</v>
+        <v>0.73</v>
+      </c>
+      <c r="H303">
+        <v>0.642</v>
+      </c>
+      <c r="I303">
+        <v>0.786</v>
+      </c>
+      <c r="J303">
+        <v>0.666</v>
+      </c>
+      <c r="K303">
+        <v>0.794</v>
+      </c>
+      <c r="L303">
+        <v>0.861</v>
+      </c>
+      <c r="P303">
+        <v>0.65</v>
+      </c>
+      <c r="Q303">
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:17">
@@ -9056,13 +9275,13 @@
         <v>20</v>
       </c>
       <c r="C304" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E304">
-        <v>0.549</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="305" spans="1:17">
@@ -9073,16 +9292,31 @@
         <v>20</v>
       </c>
       <c r="C305" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E305">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="F305">
-        <v>0.971</v>
+        <v>0.622</v>
+      </c>
+      <c r="G305">
+        <v>0.644</v>
+      </c>
+      <c r="H305">
+        <v>0.713</v>
+      </c>
+      <c r="I305">
+        <v>0.786</v>
+      </c>
+      <c r="J305">
+        <v>0.767</v>
+      </c>
+      <c r="P305">
+        <v>0.656</v>
+      </c>
+      <c r="Q305">
+        <v>0.417</v>
       </c>
     </row>
     <row r="306" spans="1:17">
@@ -9093,22 +9327,34 @@
         <v>20</v>
       </c>
       <c r="C306" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E306">
-        <v>0.704</v>
+        <v>137</v>
+      </c>
+      <c r="G306">
+        <v>0.737</v>
+      </c>
+      <c r="H306">
+        <v>0.656</v>
+      </c>
+      <c r="I306">
+        <v>0.782</v>
+      </c>
+      <c r="J306">
+        <v>0.672</v>
       </c>
       <c r="K306">
-        <v>0.766</v>
+        <v>0.77</v>
       </c>
       <c r="L306">
-        <v>0.866</v>
-      </c>
-      <c r="M306">
-        <v>0.9340000000000001</v>
+        <v>0.842</v>
+      </c>
+      <c r="P306">
+        <v>0.669</v>
+      </c>
+      <c r="Q306">
+        <v>0.8</v>
       </c>
     </row>
     <row r="307" spans="1:17">
@@ -9119,28 +9365,34 @@
         <v>20</v>
       </c>
       <c r="C307" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G307">
-        <v>0.983</v>
+        <v>0.515</v>
       </c>
       <c r="H307">
-        <v>0.964</v>
+        <v>0.778</v>
       </c>
       <c r="I307">
-        <v>0.98</v>
+        <v>0.886</v>
       </c>
       <c r="J307">
-        <v>0.98</v>
+        <v>0.739</v>
       </c>
       <c r="K307">
-        <v>0.97</v>
+        <v>0.896</v>
       </c>
       <c r="L307">
-        <v>0.967</v>
+        <v>0.738</v>
+      </c>
+      <c r="P307">
+        <v>0.775</v>
+      </c>
+      <c r="Q307">
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:17">
@@ -9151,28 +9403,37 @@
         <v>20</v>
       </c>
       <c r="C308" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
+      </c>
+      <c r="E308">
+        <v>0.5</v>
       </c>
       <c r="G308">
-        <v>0.98</v>
+        <v>0.696</v>
       </c>
       <c r="H308">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I308">
-        <v>0.982</v>
+        <v>0.898</v>
       </c>
       <c r="J308">
-        <v>0.983</v>
+        <v>0.752</v>
       </c>
       <c r="K308">
-        <v>0.974</v>
+        <v>0.888</v>
       </c>
       <c r="L308">
-        <v>0.965</v>
+        <v>0.884</v>
+      </c>
+      <c r="P308">
+        <v>0.531</v>
+      </c>
+      <c r="Q308">
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:17">
@@ -9183,28 +9444,16 @@
         <v>20</v>
       </c>
       <c r="C309" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L309">
-        <v>0.78</v>
-      </c>
-      <c r="M309">
-        <v>0.764</v>
-      </c>
-      <c r="N309">
-        <v>0.767</v>
-      </c>
-      <c r="O309">
-        <v>0.713</v>
+        <v>142</v>
       </c>
       <c r="P309">
-        <v>0.797</v>
+        <v>0.671</v>
       </c>
       <c r="Q309">
-        <v>0.794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:17">
@@ -9215,13 +9464,16 @@
         <v>20</v>
       </c>
       <c r="C310" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E310">
-        <v>0.543</v>
+        <v>143</v>
+      </c>
+      <c r="K310">
+        <v>0.921</v>
+      </c>
+      <c r="L310">
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:17">
@@ -9232,16 +9484,13 @@
         <v>20</v>
       </c>
       <c r="C311" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F311">
-        <v>0.974</v>
-      </c>
-      <c r="G311">
-        <v>0.98</v>
+        <v>144</v>
+      </c>
+      <c r="E311">
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:17">
@@ -9252,19 +9501,16 @@
         <v>20</v>
       </c>
       <c r="C312" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E312">
-        <v>0.68</v>
-      </c>
-      <c r="F312">
-        <v>0.791</v>
-      </c>
-      <c r="G312">
-        <v>0.753</v>
+        <v>145</v>
+      </c>
+      <c r="P312">
+        <v>0.725</v>
+      </c>
+      <c r="Q312">
+        <v>0.983</v>
       </c>
     </row>
     <row r="313" spans="1:17">
@@ -9275,16 +9521,16 @@
         <v>20</v>
       </c>
       <c r="C313" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H313">
-        <v>0.631</v>
-      </c>
-      <c r="I313">
-        <v>0.931</v>
+        <v>146</v>
+      </c>
+      <c r="P313">
+        <v>0.65</v>
+      </c>
+      <c r="Q313">
+        <v>0.766</v>
       </c>
     </row>
     <row r="314" spans="1:17">
@@ -9295,28 +9541,13 @@
         <v>20</v>
       </c>
       <c r="C314" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G314">
-        <v>0.665</v>
-      </c>
-      <c r="H314">
-        <v>0.68</v>
-      </c>
-      <c r="I314">
-        <v>0.82</v>
-      </c>
-      <c r="J314">
-        <v>0.82</v>
-      </c>
-      <c r="K314">
-        <v>0.797</v>
-      </c>
-      <c r="L314">
-        <v>0.8100000000000001</v>
+        <v>149</v>
+      </c>
+      <c r="E314">
+        <v>0.66</v>
       </c>
     </row>
     <row r="315" spans="1:17">
@@ -9327,13 +9558,16 @@
         <v>20</v>
       </c>
       <c r="C315" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E315">
-        <v>0.694</v>
+        <v>150</v>
+      </c>
+      <c r="P315">
+        <v>0.732</v>
+      </c>
+      <c r="Q315">
+        <v>0.982</v>
       </c>
     </row>
     <row r="316" spans="1:17">
@@ -9344,13 +9578,13 @@
         <v>20</v>
       </c>
       <c r="C316" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E316">
-        <v>0.706</v>
+        <v>151</v>
+      </c>
+      <c r="G316">
+        <v>0.731</v>
       </c>
     </row>
     <row r="317" spans="1:17">
@@ -9361,28 +9595,13 @@
         <v>20</v>
       </c>
       <c r="C317" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G317">
-        <v>0.667</v>
-      </c>
-      <c r="H317">
-        <v>0.6909999999999999</v>
-      </c>
-      <c r="I317">
-        <v>0.799</v>
-      </c>
-      <c r="J317">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="K317">
-        <v>0.787</v>
-      </c>
-      <c r="L317">
-        <v>0.794</v>
+        <v>152</v>
+      </c>
+      <c r="E317">
+        <v>0.748</v>
       </c>
     </row>
     <row r="318" spans="1:17">
@@ -9393,13 +9612,19 @@
         <v>20</v>
       </c>
       <c r="C318" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G318">
-        <v>0.975</v>
+        <v>154</v>
+      </c>
+      <c r="E318">
+        <v>0.599</v>
+      </c>
+      <c r="K318">
+        <v>0.769</v>
+      </c>
+      <c r="L318">
+        <v>0.795</v>
       </c>
     </row>
     <row r="319" spans="1:17">
@@ -9410,49 +9635,28 @@
         <v>20</v>
       </c>
       <c r="C319" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E319">
-        <v>0.643</v>
-      </c>
-      <c r="F319">
-        <v>0.819</v>
+        <v>155</v>
       </c>
       <c r="G319">
-        <v>0.728</v>
+        <v>0.781</v>
       </c>
       <c r="H319">
-        <v>0.671</v>
+        <v>0.666</v>
       </c>
       <c r="I319">
-        <v>0.781</v>
+        <v>0.772</v>
       </c>
       <c r="J319">
-        <v>0.833</v>
+        <v>0.658</v>
       </c>
       <c r="K319">
-        <v>0.792</v>
+        <v>0.828</v>
       </c>
       <c r="L319">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="M319">
-        <v>0.796</v>
-      </c>
-      <c r="N319">
-        <v>0.795</v>
-      </c>
-      <c r="O319">
-        <v>0.751</v>
-      </c>
-      <c r="P319">
-        <v>0.789</v>
-      </c>
-      <c r="Q319">
-        <v>0.792</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="320" spans="1:17">
@@ -9463,28 +9667,28 @@
         <v>20</v>
       </c>
       <c r="C320" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G320">
-        <v>0.984</v>
+        <v>0.726</v>
       </c>
       <c r="H320">
-        <v>0.973</v>
+        <v>0.679</v>
       </c>
       <c r="I320">
-        <v>0.986</v>
+        <v>0.782</v>
       </c>
       <c r="J320">
-        <v>0.984</v>
+        <v>0.71</v>
       </c>
       <c r="K320">
-        <v>0.978</v>
+        <v>0.803</v>
       </c>
       <c r="L320">
-        <v>0.974</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="321" spans="1:17">
@@ -9495,49 +9699,16 @@
         <v>20</v>
       </c>
       <c r="C321" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E321">
-        <v>0.848</v>
-      </c>
-      <c r="F321">
-        <v>0.882</v>
-      </c>
-      <c r="G321">
-        <v>0.958</v>
-      </c>
-      <c r="H321">
-        <v>0.956</v>
-      </c>
-      <c r="I321">
-        <v>0.974</v>
-      </c>
-      <c r="J321">
-        <v>0.979</v>
-      </c>
-      <c r="K321">
-        <v>0.964</v>
-      </c>
-      <c r="L321">
-        <v>0.961</v>
-      </c>
-      <c r="M321">
-        <v>0.972</v>
-      </c>
-      <c r="N321">
-        <v>0.968</v>
-      </c>
-      <c r="O321">
-        <v>0.977</v>
+        <v>157</v>
       </c>
       <c r="P321">
-        <v>0.966</v>
+        <v>0.695</v>
       </c>
       <c r="Q321">
-        <v>0.958</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="322" spans="1:17">
@@ -9548,13 +9719,13 @@
         <v>20</v>
       </c>
       <c r="C322" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E322">
-        <v>0.919</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="323" spans="1:17">
@@ -9565,28 +9736,13 @@
         <v>20</v>
       </c>
       <c r="C323" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L323">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="M323">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="N323">
-        <v>0.538</v>
-      </c>
-      <c r="O323">
-        <v>0.44</v>
-      </c>
-      <c r="P323">
-        <v>0.74</v>
-      </c>
-      <c r="Q323">
-        <v>0.728</v>
+        <v>160</v>
+      </c>
+      <c r="E323">
+        <v>0.619</v>
       </c>
     </row>
     <row r="324" spans="1:17">
@@ -9597,19 +9753,16 @@
         <v>20</v>
       </c>
       <c r="C324" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E324">
-        <v>0.769</v>
-      </c>
-      <c r="F324">
-        <v>0.806</v>
-      </c>
-      <c r="G324">
-        <v>0.719</v>
+        <v>161</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324">
+        <v>0.904</v>
       </c>
     </row>
     <row r="325" spans="1:17">
@@ -9620,28 +9773,28 @@
         <v>20</v>
       </c>
       <c r="C325" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="G325">
+        <v>0.667</v>
+      </c>
+      <c r="H325">
+        <v>0.782</v>
+      </c>
+      <c r="I325">
+        <v>0.893</v>
+      </c>
+      <c r="J325">
+        <v>0.769</v>
+      </c>
+      <c r="K325">
+        <v>0.894</v>
       </c>
       <c r="L325">
-        <v>0.82</v>
-      </c>
-      <c r="M325">
-        <v>0.78</v>
-      </c>
-      <c r="N325">
-        <v>0.761</v>
-      </c>
-      <c r="O325">
-        <v>0.732</v>
-      </c>
-      <c r="P325">
-        <v>0.801</v>
-      </c>
-      <c r="Q325">
-        <v>0.8090000000000001</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="326" spans="1:17">
@@ -9652,16 +9805,13 @@
         <v>20</v>
       </c>
       <c r="C326" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="P326">
-        <v>0.796</v>
-      </c>
-      <c r="Q326">
-        <v>0.8070000000000001</v>
+        <v>163</v>
+      </c>
+      <c r="E326">
+        <v>0.597</v>
       </c>
     </row>
     <row r="327" spans="1:17">
@@ -9672,19 +9822,13 @@
         <v>20</v>
       </c>
       <c r="C327" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E327">
-        <v>0.961</v>
-      </c>
-      <c r="F327">
-        <v>0.968</v>
-      </c>
-      <c r="G327">
-        <v>0.979</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="328" spans="1:17">
@@ -9695,16 +9839,28 @@
         <v>20</v>
       </c>
       <c r="C328" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E328">
-        <v>0.9429999999999999</v>
-      </c>
-      <c r="F328">
-        <v>0.974</v>
+        <v>165</v>
+      </c>
+      <c r="G328">
+        <v>0.681</v>
+      </c>
+      <c r="H328">
+        <v>0.784</v>
+      </c>
+      <c r="I328">
+        <v>0.887</v>
+      </c>
+      <c r="J328">
+        <v>0.761</v>
+      </c>
+      <c r="K328">
+        <v>0.893</v>
+      </c>
+      <c r="L328">
+        <v>0.869</v>
       </c>
     </row>
     <row r="329" spans="1:17">
@@ -9715,49 +9871,37 @@
         <v>20</v>
       </c>
       <c r="C329" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E329">
-        <v>0.948</v>
-      </c>
-      <c r="F329">
-        <v>0.981</v>
+        <v>0.5</v>
       </c>
       <c r="G329">
-        <v>0.981</v>
+        <v>0.644</v>
       </c>
       <c r="H329">
-        <v>0.963</v>
+        <v>0.791</v>
       </c>
       <c r="I329">
-        <v>0.986</v>
+        <v>0.875</v>
       </c>
       <c r="J329">
-        <v>0.983</v>
+        <v>0.764</v>
       </c>
       <c r="K329">
-        <v>0.975</v>
+        <v>0.889</v>
       </c>
       <c r="L329">
-        <v>0.967</v>
-      </c>
-      <c r="M329">
-        <v>0.965</v>
-      </c>
-      <c r="N329">
-        <v>0.955</v>
-      </c>
-      <c r="O329">
-        <v>0.966</v>
+        <v>0.884</v>
       </c>
       <c r="P329">
-        <v>0.972</v>
+        <v>0.723</v>
       </c>
       <c r="Q329">
-        <v>0.968</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="330" spans="1:17">
@@ -9768,16 +9912,28 @@
         <v>20</v>
       </c>
       <c r="C330" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E330">
-        <v>0.953</v>
-      </c>
-      <c r="F330">
-        <v>0.968</v>
+        <v>168</v>
+      </c>
+      <c r="G330">
+        <v>0.731</v>
+      </c>
+      <c r="H330">
+        <v>0.653</v>
+      </c>
+      <c r="I330">
+        <v>0.782</v>
+      </c>
+      <c r="J330">
+        <v>0.663</v>
+      </c>
+      <c r="K330">
+        <v>0.796</v>
+      </c>
+      <c r="L330">
+        <v>0.865</v>
       </c>
     </row>
     <row r="331" spans="1:17">
@@ -9788,25 +9944,34 @@
         <v>20</v>
       </c>
       <c r="C331" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M331">
-        <v>0.98</v>
-      </c>
-      <c r="N331">
-        <v>0.962</v>
-      </c>
-      <c r="O331">
-        <v>0.977</v>
+        <v>169</v>
+      </c>
+      <c r="G331">
+        <v>0.736</v>
+      </c>
+      <c r="H331">
+        <v>0.678</v>
+      </c>
+      <c r="I331">
+        <v>0.766</v>
+      </c>
+      <c r="J331">
+        <v>0.663</v>
+      </c>
+      <c r="K331">
+        <v>0.78</v>
+      </c>
+      <c r="L331">
+        <v>0.865</v>
       </c>
       <c r="P331">
-        <v>0.971</v>
+        <v>0.652</v>
       </c>
       <c r="Q331">
-        <v>0.965</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="332" spans="1:17">
@@ -9817,19 +9982,13 @@
         <v>20</v>
       </c>
       <c r="C332" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J332">
-        <v>0.826</v>
-      </c>
-      <c r="K332">
-        <v>0.789</v>
-      </c>
-      <c r="L332">
-        <v>0.82</v>
+        <v>170</v>
+      </c>
+      <c r="E332">
+        <v>0.631</v>
       </c>
     </row>
     <row r="333" spans="1:17">
@@ -9840,28 +9999,16 @@
         <v>20</v>
       </c>
       <c r="C333" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L333">
-        <v>0.835</v>
-      </c>
-      <c r="M333">
-        <v>0.836</v>
-      </c>
-      <c r="N333">
-        <v>0.82</v>
-      </c>
-      <c r="O333">
-        <v>0.835</v>
+        <v>171</v>
       </c>
       <c r="P333">
-        <v>0.842</v>
+        <v>0.876</v>
       </c>
       <c r="Q333">
-        <v>0.805</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="334" spans="1:17">
@@ -9872,43 +10019,16 @@
         <v>20</v>
       </c>
       <c r="C334" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G334">
-        <v>0.984</v>
-      </c>
-      <c r="H334">
-        <v>0.963</v>
-      </c>
-      <c r="I334">
-        <v>0.954</v>
-      </c>
-      <c r="J334">
-        <v>0.972</v>
-      </c>
-      <c r="K334">
-        <v>0.963</v>
-      </c>
-      <c r="L334">
-        <v>0.9419999999999999</v>
-      </c>
-      <c r="M334">
-        <v>0.914</v>
-      </c>
-      <c r="N334">
-        <v>0.825</v>
-      </c>
-      <c r="O334">
-        <v>0.836</v>
+        <v>173</v>
       </c>
       <c r="P334">
-        <v>0.903</v>
+        <v>0.733</v>
       </c>
       <c r="Q334">
-        <v>0.845</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="335" spans="1:17">
@@ -9919,13 +10039,16 @@
         <v>20</v>
       </c>
       <c r="C335" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E335">
-        <v>0.953</v>
+        <v>174</v>
+      </c>
+      <c r="P335">
+        <v>0.754</v>
+      </c>
+      <c r="Q335">
+        <v>0.983</v>
       </c>
     </row>
     <row r="336" spans="1:17">
@@ -9936,19 +10059,13 @@
         <v>20</v>
       </c>
       <c r="C336" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E336">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="F336">
-        <v>0.969</v>
-      </c>
-      <c r="G336">
-        <v>0.965</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="337" spans="1:17">
@@ -9959,19 +10076,37 @@
         <v>20</v>
       </c>
       <c r="C337" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E337">
-        <v>0.927</v>
-      </c>
-      <c r="F337">
-        <v>0.963</v>
+        <v>0.624</v>
       </c>
       <c r="G337">
-        <v>0.979</v>
+        <v>0.735</v>
+      </c>
+      <c r="H337">
+        <v>0.675</v>
+      </c>
+      <c r="I337">
+        <v>0.784</v>
+      </c>
+      <c r="J337">
+        <v>0.664</v>
+      </c>
+      <c r="K337">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="L337">
+        <v>0.851</v>
+      </c>
+      <c r="P337">
+        <v>0.626</v>
+      </c>
+      <c r="Q337">
+        <v>0.775</v>
       </c>
     </row>
     <row r="338" spans="1:17">
@@ -9982,43 +10117,13 @@
         <v>20</v>
       </c>
       <c r="C338" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G338">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="H338">
-        <v>0.757</v>
-      </c>
-      <c r="I338">
-        <v>0.854</v>
-      </c>
-      <c r="J338">
-        <v>0.8</v>
-      </c>
-      <c r="K338">
-        <v>0.775</v>
-      </c>
-      <c r="L338">
-        <v>0.819</v>
-      </c>
-      <c r="M338">
-        <v>0.827</v>
-      </c>
-      <c r="N338">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O338">
-        <v>0.829</v>
+        <v>179</v>
       </c>
       <c r="P338">
-        <v>0.84</v>
-      </c>
-      <c r="Q338">
-        <v>0.8100000000000001</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="339" spans="1:17">
@@ -10029,16 +10134,19 @@
         <v>20</v>
       </c>
       <c r="C339" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="J339">
+        <v>0.768</v>
       </c>
       <c r="K339">
-        <v>0.775</v>
+        <v>0.896</v>
       </c>
       <c r="L339">
-        <v>0.8149999999999999</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="340" spans="1:17">
@@ -10049,13 +10157,16 @@
         <v>20</v>
       </c>
       <c r="C340" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E340">
-        <v>0.881</v>
+        <v>181</v>
+      </c>
+      <c r="P340">
+        <v>0.656</v>
+      </c>
+      <c r="Q340">
+        <v>0.876</v>
       </c>
     </row>
     <row r="341" spans="1:17">
@@ -10066,13 +10177,34 @@
         <v>20</v>
       </c>
       <c r="C341" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E341">
-        <v>0.652</v>
+        <v>182</v>
+      </c>
+      <c r="G341">
+        <v>0.714</v>
+      </c>
+      <c r="H341">
+        <v>0.638</v>
+      </c>
+      <c r="I341">
+        <v>0.804</v>
+      </c>
+      <c r="J341">
+        <v>0.673</v>
+      </c>
+      <c r="K341">
+        <v>0.805</v>
+      </c>
+      <c r="L341">
+        <v>0.848</v>
+      </c>
+      <c r="P341">
+        <v>0.67</v>
+      </c>
+      <c r="Q341">
+        <v>0.737</v>
       </c>
     </row>
     <row r="342" spans="1:17">
@@ -10083,28 +10215,13 @@
         <v>20</v>
       </c>
       <c r="C342" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G342">
-        <v>0.981</v>
-      </c>
-      <c r="H342">
-        <v>0.968</v>
-      </c>
-      <c r="I342">
-        <v>0.985</v>
-      </c>
-      <c r="J342">
-        <v>0.971</v>
-      </c>
-      <c r="K342">
-        <v>0.971</v>
-      </c>
-      <c r="L342">
-        <v>0.966</v>
+        <v>183</v>
+      </c>
+      <c r="E342">
+        <v>0.49</v>
       </c>
     </row>
     <row r="343" spans="1:17">
@@ -10115,16 +10232,34 @@
         <v>20</v>
       </c>
       <c r="C343" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E343">
-        <v>0.952</v>
-      </c>
-      <c r="F343">
-        <v>0.967</v>
+        <v>186</v>
+      </c>
+      <c r="G343">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="H343">
+        <v>0.665</v>
+      </c>
+      <c r="I343">
+        <v>0.77</v>
+      </c>
+      <c r="J343">
+        <v>0.732</v>
+      </c>
+      <c r="K343">
+        <v>0.742</v>
+      </c>
+      <c r="L343">
+        <v>0.781</v>
+      </c>
+      <c r="P343">
+        <v>0.63</v>
+      </c>
+      <c r="Q343">
+        <v>0.864</v>
       </c>
     </row>
     <row r="344" spans="1:17">
@@ -10135,13 +10270,16 @@
         <v>20</v>
       </c>
       <c r="C344" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E344">
-        <v>0.622</v>
+        <v>187</v>
+      </c>
+      <c r="K344">
+        <v>0.775</v>
+      </c>
+      <c r="L344">
+        <v>0.775</v>
       </c>
     </row>
     <row r="345" spans="1:17">
@@ -10152,13 +10290,13 @@
         <v>20</v>
       </c>
       <c r="C345" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E345">
-        <v>0.908</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="346" spans="1:17">
@@ -10169,46 +10307,13 @@
         <v>20</v>
       </c>
       <c r="C346" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E346">
-        <v>0.775</v>
-      </c>
-      <c r="F346">
-        <v>0.79</v>
-      </c>
-      <c r="G346">
-        <v>0.753</v>
-      </c>
-      <c r="H346">
-        <v>0.801</v>
-      </c>
-      <c r="I346">
-        <v>0.857</v>
-      </c>
-      <c r="J346">
-        <v>0.772</v>
-      </c>
-      <c r="L346">
-        <v>0.992</v>
-      </c>
-      <c r="M346">
-        <v>0.98</v>
-      </c>
-      <c r="N346">
-        <v>0.966</v>
-      </c>
-      <c r="O346">
-        <v>0.972</v>
-      </c>
-      <c r="P346">
-        <v>0.984</v>
-      </c>
-      <c r="Q346">
-        <v>0.972</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:17">
@@ -10219,34 +10324,28 @@
         <v>20</v>
       </c>
       <c r="C347" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E347">
-        <v>0.954</v>
-      </c>
-      <c r="F347">
-        <v>0.986</v>
+        <v>190</v>
       </c>
       <c r="G347">
-        <v>0.984</v>
+        <v>0.734</v>
       </c>
       <c r="H347">
-        <v>0.984</v>
+        <v>0.665</v>
       </c>
       <c r="I347">
-        <v>0.977</v>
+        <v>0.762</v>
       </c>
       <c r="J347">
-        <v>0.977</v>
+        <v>0.671</v>
       </c>
       <c r="K347">
-        <v>0.976</v>
+        <v>0.789</v>
       </c>
       <c r="L347">
-        <v>0.962</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="348" spans="1:17">
@@ -10257,49 +10356,13 @@
         <v>20</v>
       </c>
       <c r="C348" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E348">
-        <v>0.776</v>
-      </c>
-      <c r="F348">
-        <v>0.793</v>
-      </c>
-      <c r="G348">
-        <v>0.709</v>
-      </c>
-      <c r="H348">
-        <v>0.782</v>
-      </c>
-      <c r="I348">
-        <v>0.826</v>
-      </c>
-      <c r="J348">
-        <v>0.782</v>
-      </c>
-      <c r="K348">
-        <v>0.8</v>
-      </c>
-      <c r="L348">
-        <v>0.821</v>
-      </c>
-      <c r="M348">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="N348">
-        <v>0.805</v>
-      </c>
-      <c r="O348">
-        <v>0.865</v>
-      </c>
-      <c r="P348">
-        <v>0.853</v>
-      </c>
-      <c r="Q348">
-        <v>0.776</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="349" spans="1:17">
@@ -10310,16 +10373,13 @@
         <v>20</v>
       </c>
       <c r="C349" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E349">
-        <v>0.946</v>
-      </c>
-      <c r="F349">
-        <v>0.98</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="350" spans="1:17">
@@ -10330,25 +10390,25 @@
         <v>20</v>
       </c>
       <c r="C350" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E350">
-        <v>0.702</v>
-      </c>
-      <c r="F350">
-        <v>0.845</v>
+        <v>194</v>
       </c>
       <c r="G350">
-        <v>0.735</v>
+        <v>0.675</v>
       </c>
       <c r="H350">
-        <v>0.6830000000000001</v>
+        <v>0.695</v>
       </c>
       <c r="I350">
-        <v>0.789</v>
+        <v>0.798</v>
+      </c>
+      <c r="J350">
+        <v>0.736</v>
+      </c>
+      <c r="P350">
+        <v>0.59</v>
       </c>
     </row>
     <row r="351" spans="1:17">
@@ -10359,19 +10419,28 @@
         <v>20</v>
       </c>
       <c r="C351" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O351">
-        <v>0.795</v>
-      </c>
-      <c r="P351">
-        <v>0.794</v>
-      </c>
-      <c r="Q351">
-        <v>0.751</v>
+        <v>195</v>
+      </c>
+      <c r="G351">
+        <v>0.753</v>
+      </c>
+      <c r="H351">
+        <v>0.668</v>
+      </c>
+      <c r="I351">
+        <v>0.774</v>
+      </c>
+      <c r="J351">
+        <v>0.681</v>
+      </c>
+      <c r="K351">
+        <v>0.766</v>
+      </c>
+      <c r="L351">
+        <v>0.891</v>
       </c>
     </row>
     <row r="352" spans="1:17">
@@ -10382,34 +10451,31 @@
         <v>20</v>
       </c>
       <c r="C352" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E352">
-        <v>0.962</v>
-      </c>
-      <c r="F352">
-        <v>0.958</v>
+        <v>196</v>
       </c>
       <c r="G352">
-        <v>0.974</v>
+        <v>0.58</v>
       </c>
       <c r="H352">
-        <v>0.951</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="I352">
-        <v>0.966</v>
+        <v>0.783</v>
       </c>
       <c r="J352">
-        <v>0.982</v>
+        <v>0.737</v>
       </c>
       <c r="K352">
-        <v>0.97</v>
+        <v>0.801</v>
       </c>
       <c r="L352">
-        <v>0.956</v>
+        <v>0.774</v>
+      </c>
+      <c r="P352">
+        <v>0.662</v>
       </c>
     </row>
     <row r="353" spans="1:17">
@@ -10420,28 +10486,13 @@
         <v>20</v>
       </c>
       <c r="C353" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="L353">
-        <v>0.989</v>
-      </c>
-      <c r="M353">
-        <v>0.974</v>
-      </c>
-      <c r="N353">
-        <v>0.972</v>
-      </c>
-      <c r="O353">
-        <v>0.977</v>
-      </c>
-      <c r="P353">
-        <v>0.976</v>
-      </c>
-      <c r="Q353">
-        <v>0.957</v>
+        <v>197</v>
+      </c>
+      <c r="E353">
+        <v>0.538</v>
       </c>
     </row>
     <row r="354" spans="1:17">
@@ -10452,13 +10503,22 @@
         <v>20</v>
       </c>
       <c r="C354" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E354">
-        <v>0.712</v>
+        <v>0.57</v>
+      </c>
+      <c r="G354">
+        <v>0.679</v>
+      </c>
+      <c r="H354">
+        <v>0.79</v>
+      </c>
+      <c r="I354">
+        <v>0.894</v>
       </c>
     </row>
     <row r="355" spans="1:17">
@@ -10469,34 +10529,16 @@
         <v>20</v>
       </c>
       <c r="C355" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E355">
-        <v>0.657</v>
-      </c>
-      <c r="F355">
-        <v>0.783</v>
-      </c>
-      <c r="G355">
-        <v>0.747</v>
-      </c>
-      <c r="H355">
-        <v>0.703</v>
-      </c>
-      <c r="I355">
-        <v>0.828</v>
-      </c>
-      <c r="J355">
-        <v>0.806</v>
-      </c>
-      <c r="K355">
-        <v>0.839</v>
-      </c>
-      <c r="L355">
-        <v>0.806</v>
+        <v>199</v>
+      </c>
+      <c r="P355">
+        <v>0.741</v>
+      </c>
+      <c r="Q355">
+        <v>0.982</v>
       </c>
     </row>
     <row r="356" spans="1:17">
@@ -10507,13 +10549,28 @@
         <v>20</v>
       </c>
       <c r="C356" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E356">
-        <v>0.9409999999999999</v>
+        <v>200</v>
+      </c>
+      <c r="G356">
+        <v>0.75</v>
+      </c>
+      <c r="H356">
+        <v>0.646</v>
+      </c>
+      <c r="I356">
+        <v>0.755</v>
+      </c>
+      <c r="J356">
+        <v>0.671</v>
+      </c>
+      <c r="K356">
+        <v>0.789</v>
+      </c>
+      <c r="L356">
+        <v>0.852</v>
       </c>
     </row>
     <row r="357" spans="1:17">
@@ -10524,28 +10581,16 @@
         <v>20</v>
       </c>
       <c r="C357" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L357">
-        <v>0.838</v>
-      </c>
-      <c r="M357">
-        <v>0.798</v>
-      </c>
-      <c r="N357">
-        <v>0.778</v>
-      </c>
-      <c r="O357">
-        <v>0.73</v>
+        <v>201</v>
       </c>
       <c r="P357">
-        <v>0.972</v>
+        <v>0.652</v>
       </c>
       <c r="Q357">
-        <v>0.968</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="358" spans="1:17">
@@ -10556,13 +10601,13 @@
         <v>20</v>
       </c>
       <c r="C358" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E358">
-        <v>0.9320000000000001</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="359" spans="1:17">
@@ -10573,49 +10618,31 @@
         <v>20</v>
       </c>
       <c r="C359" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E359">
-        <v>0.871</v>
-      </c>
-      <c r="F359">
-        <v>0.955</v>
+        <v>0.639</v>
       </c>
       <c r="G359">
-        <v>0.976</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H359">
-        <v>0.972</v>
+        <v>0.795</v>
       </c>
       <c r="I359">
-        <v>0.982</v>
+        <v>0.889</v>
       </c>
       <c r="J359">
-        <v>0.976</v>
+        <v>0.746</v>
       </c>
       <c r="K359">
-        <v>0.973</v>
+        <v>0.911</v>
       </c>
       <c r="L359">
-        <v>0.973</v>
-      </c>
-      <c r="M359">
-        <v>0.977</v>
-      </c>
-      <c r="N359">
-        <v>0.971</v>
-      </c>
-      <c r="O359">
-        <v>0.978</v>
-      </c>
-      <c r="P359">
-        <v>0.976</v>
-      </c>
-      <c r="Q359">
-        <v>0.974</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="360" spans="1:17">
@@ -10626,13 +10653,16 @@
         <v>20</v>
       </c>
       <c r="C360" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E360">
-        <v>0.645</v>
+        <v>205</v>
+      </c>
+      <c r="P360">
+        <v>0.65</v>
+      </c>
+      <c r="Q360">
+        <v>0.698</v>
       </c>
     </row>
     <row r="361" spans="1:17">
@@ -10643,16 +10673,34 @@
         <v>20</v>
       </c>
       <c r="C361" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E361">
-        <v>0.711</v>
-      </c>
-      <c r="F361">
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="G361">
+        <v>0.695</v>
+      </c>
+      <c r="H361">
+        <v>0.652</v>
+      </c>
+      <c r="I361">
+        <v>0.783</v>
+      </c>
+      <c r="J361">
+        <v>0.664</v>
+      </c>
+      <c r="K361">
+        <v>0.798</v>
+      </c>
+      <c r="L361">
+        <v>0.857</v>
+      </c>
+      <c r="P361">
+        <v>0.648</v>
+      </c>
+      <c r="Q361">
+        <v>0.776</v>
       </c>
     </row>
     <row r="362" spans="1:17">
@@ -10663,43 +10711,13 @@
         <v>20</v>
       </c>
       <c r="C362" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G362">
-        <v>0.996</v>
-      </c>
-      <c r="H362">
-        <v>0.968</v>
-      </c>
-      <c r="I362">
-        <v>0.983</v>
-      </c>
-      <c r="J362">
-        <v>0.98</v>
-      </c>
-      <c r="K362">
-        <v>0.974</v>
-      </c>
-      <c r="L362">
-        <v>0.99</v>
-      </c>
-      <c r="M362">
-        <v>0.978</v>
-      </c>
-      <c r="N362">
-        <v>0.964</v>
-      </c>
-      <c r="O362">
-        <v>0.971</v>
-      </c>
-      <c r="P362">
-        <v>0.952</v>
-      </c>
-      <c r="Q362">
-        <v>0.972</v>
+        <v>208</v>
+      </c>
+      <c r="E362">
+        <v>0.626</v>
       </c>
     </row>
     <row r="363" spans="1:17">
@@ -10710,13 +10728,31 @@
         <v>20</v>
       </c>
       <c r="C363" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E363">
-        <v>0.635</v>
+        <v>210</v>
+      </c>
+      <c r="G363">
+        <v>0.868</v>
+      </c>
+      <c r="H363">
+        <v>0.633</v>
+      </c>
+      <c r="I363">
+        <v>0.77</v>
+      </c>
+      <c r="J363">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="K363">
+        <v>0.799</v>
+      </c>
+      <c r="P363">
+        <v>0.627</v>
+      </c>
+      <c r="Q363">
+        <v>0.76</v>
       </c>
     </row>
     <row r="364" spans="1:17">
@@ -10727,49 +10763,13 @@
         <v>20</v>
       </c>
       <c r="C364" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E364">
-        <v>0.646</v>
-      </c>
-      <c r="F364">
-        <v>0.799</v>
-      </c>
-      <c r="G364">
-        <v>0.763</v>
-      </c>
-      <c r="H364">
-        <v>0.708</v>
-      </c>
-      <c r="I364">
-        <v>0.805</v>
-      </c>
-      <c r="J364">
-        <v>0.823</v>
-      </c>
-      <c r="K364">
-        <v>0.781</v>
-      </c>
-      <c r="L364">
-        <v>0.8090000000000001</v>
-      </c>
-      <c r="M364">
-        <v>0.791</v>
-      </c>
-      <c r="N364">
-        <v>0.776</v>
-      </c>
-      <c r="O364">
-        <v>0.739</v>
-      </c>
-      <c r="P364">
-        <v>0.797</v>
-      </c>
-      <c r="Q364">
-        <v>0.8080000000000001</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="365" spans="1:17">
@@ -10780,22 +10780,31 @@
         <v>20</v>
       </c>
       <c r="C365" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="G365">
+        <v>0.665</v>
+      </c>
+      <c r="H365">
+        <v>0.723</v>
+      </c>
+      <c r="I365">
+        <v>0.886</v>
+      </c>
+      <c r="J365">
+        <v>0.753</v>
+      </c>
+      <c r="K365">
+        <v>0.886</v>
       </c>
       <c r="L365">
-        <v>0.837</v>
-      </c>
-      <c r="M365">
-        <v>0.776</v>
-      </c>
-      <c r="N365">
-        <v>0.774</v>
-      </c>
-      <c r="O365">
-        <v>0.768</v>
+        <v>0.89</v>
+      </c>
+      <c r="P365">
+        <v>0.735</v>
       </c>
     </row>
     <row r="366" spans="1:17">
@@ -10812,31 +10821,22 @@
         <v>214</v>
       </c>
       <c r="G366">
-        <v>0.701</v>
+        <v>0.485</v>
       </c>
       <c r="H366">
-        <v>0.649</v>
+        <v>0.831</v>
       </c>
       <c r="I366">
-        <v>0.8</v>
+        <v>0.888</v>
       </c>
       <c r="J366">
-        <v>0.8139999999999999</v>
+        <v>0.759</v>
       </c>
       <c r="K366">
-        <v>0.794</v>
+        <v>0.896</v>
       </c>
       <c r="L366">
-        <v>0.829</v>
-      </c>
-      <c r="M366">
-        <v>0.83</v>
-      </c>
-      <c r="N366">
-        <v>0.784</v>
-      </c>
-      <c r="O366">
-        <v>0.746</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="367" spans="1:17">
@@ -10853,7 +10853,7 @@
         <v>215</v>
       </c>
       <c r="E367">
-        <v>0.5649999999999999</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="368" spans="1:17">

--- a/ep/ep/export/flourish/Romania_group_name.xlsx
+++ b/ep/ep/export/flourish/Romania_group_name.xlsx
@@ -70,7 +70,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
